--- a/datas/shared/BuildingLevelUp.xlsx
+++ b/datas/shared/BuildingLevelUp.xlsx
@@ -1,142 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="1480" windowWidth="37240" windowHeight="17680" tabRatio="883" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="5060" yWindow="21600" windowWidth="26860" windowHeight="15980" tabRatio="883" firstSheet="8" activeTab="23"/>
   </bookViews>
   <sheets>
-    <sheet name="keep" sheetId="17" r:id="rId1"/>
-    <sheet name="watchTower" sheetId="45" r:id="rId2"/>
-    <sheet name="dragonEyrie" sheetId="46" r:id="rId3"/>
-    <sheet name="wall" sheetId="18" r:id="rId4"/>
-    <sheet name="warehouse" sheetId="19" r:id="rId5"/>
-    <sheet name="tower" sheetId="20" r:id="rId6"/>
-    <sheet name="quarrier" sheetId="24" r:id="rId7"/>
-    <sheet name="barracks" sheetId="32" r:id="rId8"/>
-    <sheet name="armyCamp" sheetId="33" r:id="rId9"/>
-    <sheet name="blackSmith" sheetId="34" r:id="rId10"/>
-    <sheet name="materiarDepot" sheetId="35" r:id="rId11"/>
-    <sheet name="toolShop" sheetId="36" r:id="rId12"/>
-    <sheet name="lumbermill" sheetId="27" r:id="rId13"/>
-    <sheet name="stonemason" sheetId="28" r:id="rId14"/>
-    <sheet name="foundry" sheetId="29" r:id="rId15"/>
-    <sheet name="mill" sheetId="30" r:id="rId16"/>
-    <sheet name="townHall" sheetId="31" r:id="rId17"/>
-    <sheet name="acdemy" sheetId="37" r:id="rId18"/>
-    <sheet name="hospital" sheetId="38" r:id="rId19"/>
-    <sheet name="tradeguild" sheetId="39" r:id="rId20"/>
-    <sheet name="prison" sheetId="40" r:id="rId21"/>
-    <sheet name="trainingground" sheetId="41" r:id="rId22"/>
-    <sheet name="hunterhall" sheetId="42" r:id="rId23"/>
-    <sheet name="stable" sheetId="43" r:id="rId24"/>
-    <sheet name="workshop" sheetId="44" r:id="rId25"/>
+    <sheet name="wall" sheetId="18" r:id="rId1"/>
+    <sheet name="tower" sheetId="20" r:id="rId2"/>
+    <sheet name="keep" sheetId="17" r:id="rId3"/>
+    <sheet name="watchTower" sheetId="45" r:id="rId4"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId5"/>
+    <sheet name="warehouse" sheetId="19" r:id="rId6"/>
+    <sheet name="barracks" sheetId="32" r:id="rId7"/>
+    <sheet name="armyCamp" sheetId="33" r:id="rId8"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId11"/>
+    <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
+    <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
+    <sheet name="foundry" sheetId="29" r:id="rId14"/>
+    <sheet name="mill" sheetId="30" r:id="rId15"/>
+    <sheet name="townHall" sheetId="31" r:id="rId16"/>
+    <sheet name="acdemy" sheetId="37" r:id="rId17"/>
+    <sheet name="hospital" sheetId="38" r:id="rId18"/>
+    <sheet name="tradeGuild" sheetId="39" r:id="rId19"/>
+    <sheet name="prison" sheetId="40" r:id="rId20"/>
+    <sheet name="trainingGround" sheetId="41" r:id="rId21"/>
+    <sheet name="hunterhall" sheetId="42" r:id="rId22"/>
+    <sheet name="stable" sheetId="43" r:id="rId23"/>
+    <sheet name="workshop" sheetId="44" r:id="rId24"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="24">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="24">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="24">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="24">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -149,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="12">
   <si>
     <t>INT_wood</t>
   </si>
@@ -354,7 +349,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="202">
+  <cellStyleXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -369,6 +364,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -577,7 +574,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="202">
+  <cellStyles count="204">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -681,6 +678,7 @@
     <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -777,6 +775,7 @@
     <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1229,7 +1228,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1262,8 +1261,8 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
@@ -1306,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1327,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1338,13 +1337,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <v>1720</v>
       </c>
       <c r="C4" s="1">
-        <v>2000</v>
+        <v>1720</v>
       </c>
       <c r="D4" s="1">
-        <v>2000</v>
+        <v>1720</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1359,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1370,13 +1369,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6000</v>
+        <v>5160</v>
       </c>
       <c r="C5" s="1">
-        <v>6000</v>
+        <v>5160</v>
       </c>
       <c r="D5" s="1">
-        <v>6000</v>
+        <v>5160</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1391,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1402,13 +1401,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>12000</v>
+        <v>10320</v>
       </c>
       <c r="C6" s="1">
-        <v>12000</v>
+        <v>10320</v>
       </c>
       <c r="D6" s="1">
-        <v>12000</v>
+        <v>10320</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1423,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1434,13 +1433,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>36000</v>
+        <v>30960</v>
       </c>
       <c r="C7" s="1">
-        <v>36000</v>
+        <v>30960</v>
       </c>
       <c r="D7" s="1">
-        <v>36000</v>
+        <v>30960</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1455,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>900</v>
+        <v>774</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1466,13 +1465,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>72000</v>
+        <v>61920</v>
       </c>
       <c r="C8" s="1">
-        <v>72000</v>
+        <v>61920</v>
       </c>
       <c r="D8" s="1">
-        <v>72000</v>
+        <v>61920</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1487,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1800</v>
+        <v>1548</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1498,13 +1497,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>108000</v>
+        <v>92880</v>
       </c>
       <c r="C9" s="1">
-        <v>108000</v>
+        <v>92880</v>
       </c>
       <c r="D9" s="1">
-        <v>108000</v>
+        <v>92880</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -1519,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2700</v>
+        <v>2322</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1530,13 +1529,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>144000</v>
+        <v>123840</v>
       </c>
       <c r="C10" s="1">
-        <v>144000</v>
+        <v>123840</v>
       </c>
       <c r="D10" s="1">
-        <v>144000</v>
+        <v>123840</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -1551,7 +1550,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>3600</v>
+        <v>3096</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1562,13 +1561,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>180000</v>
+        <v>154800</v>
       </c>
       <c r="C11" s="1">
-        <v>180000</v>
+        <v>154800</v>
       </c>
       <c r="D11" s="1">
-        <v>180000</v>
+        <v>154800</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -1583,7 +1582,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>5400</v>
+        <v>4644</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1594,13 +1593,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>216000</v>
+        <v>185760</v>
       </c>
       <c r="C12" s="1">
-        <v>216000</v>
+        <v>185760</v>
       </c>
       <c r="D12" s="1">
-        <v>216000</v>
+        <v>185760</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -1615,7 +1614,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>7200</v>
+        <v>6192</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1626,13 +1625,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>252000</v>
+        <v>216720</v>
       </c>
       <c r="C13" s="1">
-        <v>252000</v>
+        <v>216720</v>
       </c>
       <c r="D13" s="1">
-        <v>252000</v>
+        <v>216720</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -1647,7 +1646,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>14400</v>
+        <v>12384</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1658,13 +1657,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>288000</v>
+        <v>247680</v>
       </c>
       <c r="C14" s="1">
-        <v>288000</v>
+        <v>247680</v>
       </c>
       <c r="D14" s="1">
-        <v>288000</v>
+        <v>247680</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -1679,7 +1678,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>21600</v>
+        <v>18576</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1690,13 +1689,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>324000</v>
+        <v>278640</v>
       </c>
       <c r="C15" s="1">
-        <v>324000</v>
+        <v>278640</v>
       </c>
       <c r="D15" s="1">
-        <v>324000</v>
+        <v>278640</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -1711,7 +1710,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>28800</v>
+        <v>24768</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1722,13 +1721,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>360000</v>
+        <v>309600</v>
       </c>
       <c r="C16" s="1">
-        <v>360000</v>
+        <v>309600</v>
       </c>
       <c r="D16" s="1">
-        <v>360000</v>
+        <v>309600</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -1743,7 +1742,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>43200</v>
+        <v>37152</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -1754,13 +1753,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>480000</v>
+        <v>412800</v>
       </c>
       <c r="C17" s="1">
-        <v>480000</v>
+        <v>412800</v>
       </c>
       <c r="D17" s="1">
-        <v>480000</v>
+        <v>412800</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -1775,7 +1774,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>57600</v>
+        <v>49536</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1786,13 +1785,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>600000</v>
+        <v>516000</v>
       </c>
       <c r="C18" s="1">
-        <v>600000</v>
+        <v>516000</v>
       </c>
       <c r="D18" s="1">
-        <v>600000</v>
+        <v>516000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -1807,7 +1806,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>72000</v>
+        <v>61920</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1818,13 +1817,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>720000</v>
+        <v>619200</v>
       </c>
       <c r="C19" s="1">
-        <v>720000</v>
+        <v>619200</v>
       </c>
       <c r="D19" s="1">
-        <v>720000</v>
+        <v>619200</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -1839,7 +1838,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>86400</v>
+        <v>74304</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -1850,13 +1849,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>840000</v>
+        <v>722400</v>
       </c>
       <c r="C20" s="1">
-        <v>840000</v>
+        <v>722400</v>
       </c>
       <c r="D20" s="1">
-        <v>840000</v>
+        <v>722400</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -1871,7 +1870,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>115200</v>
+        <v>99072</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -1882,13 +1881,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>960000</v>
+        <v>825600</v>
       </c>
       <c r="C21" s="1">
-        <v>960000</v>
+        <v>825600</v>
       </c>
       <c r="D21" s="1">
-        <v>960000</v>
+        <v>825600</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -1903,7 +1902,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>144000</v>
+        <v>123840</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1914,13 +1913,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1800000</v>
+        <v>1548000</v>
       </c>
       <c r="C22" s="1">
-        <v>1800000</v>
+        <v>1548000</v>
       </c>
       <c r="D22" s="1">
-        <v>1800000</v>
+        <v>1548000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -1935,7 +1934,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>172800</v>
+        <v>148608</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -1946,13 +1945,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>3600000</v>
+        <v>3096000</v>
       </c>
       <c r="C23" s="1">
-        <v>3600000</v>
+        <v>3096000</v>
       </c>
       <c r="D23" s="1">
-        <v>3600000</v>
+        <v>3096000</v>
       </c>
       <c r="E23" s="1">
         <v>6600</v>
@@ -1967,7 +1966,7 @@
         <v>6600</v>
       </c>
       <c r="I23" s="1">
-        <v>201600</v>
+        <v>173376</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -1978,13 +1977,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>6400000</v>
+        <v>5504000</v>
       </c>
       <c r="C24" s="1">
-        <v>6400000</v>
+        <v>5504000</v>
       </c>
       <c r="D24" s="1">
-        <v>6400000</v>
+        <v>5504000</v>
       </c>
       <c r="E24" s="1">
         <v>7200</v>
@@ -1999,7 +1998,7 @@
         <v>7200</v>
       </c>
       <c r="I24" s="1">
-        <v>230400</v>
+        <v>198144</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -2022,7 +2021,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2099,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="C3" s="1">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="D3" s="1">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2120,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2131,13 +2130,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1380</v>
+        <v>1140</v>
       </c>
       <c r="C4" s="1">
-        <v>1380</v>
+        <v>1140</v>
       </c>
       <c r="D4" s="1">
-        <v>1380</v>
+        <v>1140</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2152,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2163,13 +2162,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4140</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>4140</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>4140</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2184,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2195,13 +2194,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8280</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="C6" s="1">
-        <v>8280</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="D6" s="1">
-        <v>8280</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2216,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2227,13 +2226,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>24839.999999999996</v>
+        <v>20520</v>
       </c>
       <c r="C7" s="1">
-        <v>24839.999999999996</v>
+        <v>20520</v>
       </c>
       <c r="D7" s="1">
-        <v>24839.999999999996</v>
+        <v>20520</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2248,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>621</v>
+        <v>513</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2259,13 +2258,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>49679.999999999993</v>
+        <v>41040</v>
       </c>
       <c r="C8" s="1">
-        <v>49679.999999999993</v>
+        <v>41040</v>
       </c>
       <c r="D8" s="1">
-        <v>49679.999999999993</v>
+        <v>41040</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -2280,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1242</v>
+        <v>1026</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2291,13 +2290,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>74520</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>74520</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="D9" s="1">
-        <v>74520</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -2312,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1863</v>
+        <v>1539</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -2323,13 +2322,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>99359.999999999985</v>
+        <v>82080</v>
       </c>
       <c r="C10" s="1">
-        <v>99359.999999999985</v>
+        <v>82080</v>
       </c>
       <c r="D10" s="1">
-        <v>99359.999999999985</v>
+        <v>82080</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -2344,7 +2343,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2484</v>
+        <v>2052</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2355,13 +2354,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>124199.99999999999</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>124199.99999999999</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>124199.99999999999</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -2376,7 +2375,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3726</v>
+        <v>3078</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2387,13 +2386,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>149040</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>149040</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>149040</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -2408,7 +2407,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4968</v>
+        <v>4104</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2419,13 +2418,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>173880</v>
+        <v>143640</v>
       </c>
       <c r="C13" s="1">
-        <v>173880</v>
+        <v>143640</v>
       </c>
       <c r="D13" s="1">
-        <v>173880</v>
+        <v>143640</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -2440,7 +2439,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>9936</v>
+        <v>8208</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2451,13 +2450,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>198719.99999999997</v>
+        <v>164160</v>
       </c>
       <c r="C14" s="1">
-        <v>198719.99999999997</v>
+        <v>164160</v>
       </c>
       <c r="D14" s="1">
-        <v>198719.99999999997</v>
+        <v>164160</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -2472,7 +2471,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>14904</v>
+        <v>12312</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2483,13 +2482,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>223559.99999999997</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>223559.99999999997</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>223559.99999999997</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -2504,7 +2503,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>19872</v>
+        <v>16416</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2515,13 +2514,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>248399.99999999997</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>248399.99999999997</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>248399.99999999997</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -2536,7 +2535,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>29808</v>
+        <v>24624</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -2547,13 +2546,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>331200</v>
+        <v>273600</v>
       </c>
       <c r="C17" s="1">
-        <v>331200</v>
+        <v>273600</v>
       </c>
       <c r="D17" s="1">
-        <v>331200</v>
+        <v>273600</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -2568,7 +2567,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>39744</v>
+        <v>32832</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2579,13 +2578,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>413999.99999999994</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="C18" s="1">
-        <v>413999.99999999994</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="D18" s="1">
-        <v>413999.99999999994</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -2600,7 +2599,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>49680</v>
+        <v>41040</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2611,13 +2610,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>496799.99999999994</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="C19" s="1">
-        <v>496799.99999999994</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>496799.99999999994</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -2632,7 +2631,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>59616</v>
+        <v>49248</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -2643,13 +2642,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>579600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="C20" s="1">
-        <v>579600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="D20" s="1">
-        <v>579600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -2664,7 +2663,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>79488</v>
+        <v>65664</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -2675,13 +2674,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>662400</v>
+        <v>547200</v>
       </c>
       <c r="C21" s="1">
-        <v>662400</v>
+        <v>547200</v>
       </c>
       <c r="D21" s="1">
-        <v>662400</v>
+        <v>547200</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -2696,7 +2695,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>99360</v>
+        <v>82080</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -2707,13 +2706,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1242000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1242000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>1242000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -2728,7 +2727,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>119232</v>
+        <v>98496</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2751,7 +2750,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2828,13 +2827,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="C3" s="1">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="D3" s="1">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2849,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2860,13 +2859,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1140</v>
+        <v>1300</v>
       </c>
       <c r="C4" s="1">
-        <v>1140</v>
+        <v>1300</v>
       </c>
       <c r="D4" s="1">
-        <v>1140</v>
+        <v>1300</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2881,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2892,13 +2891,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3419.9999999999995</v>
+        <v>3900</v>
       </c>
       <c r="C5" s="1">
-        <v>3419.9999999999995</v>
+        <v>3900</v>
       </c>
       <c r="D5" s="1">
-        <v>3419.9999999999995</v>
+        <v>3900</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2913,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2924,13 +2923,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>6839.9999999999991</v>
+        <v>7800</v>
       </c>
       <c r="C6" s="1">
-        <v>6839.9999999999991</v>
+        <v>7800</v>
       </c>
       <c r="D6" s="1">
-        <v>6839.9999999999991</v>
+        <v>7800</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2945,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2956,13 +2955,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>20520</v>
+        <v>23400</v>
       </c>
       <c r="C7" s="1">
-        <v>20520</v>
+        <v>23400</v>
       </c>
       <c r="D7" s="1">
-        <v>20520</v>
+        <v>23400</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2977,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2988,13 +2987,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>41040</v>
+        <v>46800</v>
       </c>
       <c r="C8" s="1">
-        <v>41040</v>
+        <v>46800</v>
       </c>
       <c r="D8" s="1">
-        <v>41040</v>
+        <v>46800</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -3009,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1026</v>
+        <v>1170</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -3020,13 +3019,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>61559.999999999993</v>
+        <v>70200</v>
       </c>
       <c r="C9" s="1">
-        <v>61559.999999999993</v>
+        <v>70200</v>
       </c>
       <c r="D9" s="1">
-        <v>61559.999999999993</v>
+        <v>70200</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -3041,7 +3040,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1539</v>
+        <v>1755</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -3052,13 +3051,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>82080</v>
+        <v>93600</v>
       </c>
       <c r="C10" s="1">
-        <v>82080</v>
+        <v>93600</v>
       </c>
       <c r="D10" s="1">
-        <v>82080</v>
+        <v>93600</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -3073,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2052</v>
+        <v>2340</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -3084,13 +3083,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>102599.99999999999</v>
+        <v>117000</v>
       </c>
       <c r="C11" s="1">
-        <v>102599.99999999999</v>
+        <v>117000</v>
       </c>
       <c r="D11" s="1">
-        <v>102599.99999999999</v>
+        <v>117000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -3105,7 +3104,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3078</v>
+        <v>3510</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -3116,13 +3115,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>123119.99999999999</v>
+        <v>140400</v>
       </c>
       <c r="C12" s="1">
-        <v>123119.99999999999</v>
+        <v>140400</v>
       </c>
       <c r="D12" s="1">
-        <v>123119.99999999999</v>
+        <v>140400</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -3137,7 +3136,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4104</v>
+        <v>4680</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -3148,13 +3147,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>143640</v>
+        <v>163800</v>
       </c>
       <c r="C13" s="1">
-        <v>143640</v>
+        <v>163800</v>
       </c>
       <c r="D13" s="1">
-        <v>143640</v>
+        <v>163800</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -3169,7 +3168,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>8208</v>
+        <v>9360</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -3180,13 +3179,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>164160</v>
+        <v>187200</v>
       </c>
       <c r="C14" s="1">
-        <v>164160</v>
+        <v>187200</v>
       </c>
       <c r="D14" s="1">
-        <v>164160</v>
+        <v>187200</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -3201,7 +3200,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>12312</v>
+        <v>14040</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -3212,13 +3211,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>184679.99999999997</v>
+        <v>210600</v>
       </c>
       <c r="C15" s="1">
-        <v>184679.99999999997</v>
+        <v>210600</v>
       </c>
       <c r="D15" s="1">
-        <v>184679.99999999997</v>
+        <v>210600</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -3233,7 +3232,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>16416</v>
+        <v>18720</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -3244,13 +3243,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>205199.99999999997</v>
+        <v>234000</v>
       </c>
       <c r="C16" s="1">
-        <v>205199.99999999997</v>
+        <v>234000</v>
       </c>
       <c r="D16" s="1">
-        <v>205199.99999999997</v>
+        <v>234000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -3265,7 +3264,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>24624</v>
+        <v>28080</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3276,13 +3275,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>273600</v>
+        <v>312000</v>
       </c>
       <c r="C17" s="1">
-        <v>273600</v>
+        <v>312000</v>
       </c>
       <c r="D17" s="1">
-        <v>273600</v>
+        <v>312000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -3297,7 +3296,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>32832</v>
+        <v>37440</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3308,13 +3307,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>341999.99999999994</v>
+        <v>390000</v>
       </c>
       <c r="C18" s="1">
-        <v>341999.99999999994</v>
+        <v>390000</v>
       </c>
       <c r="D18" s="1">
-        <v>341999.99999999994</v>
+        <v>390000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -3329,7 +3328,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>41040</v>
+        <v>46800</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -3340,13 +3339,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>410399.99999999994</v>
+        <v>468000</v>
       </c>
       <c r="C19" s="1">
-        <v>410399.99999999994</v>
+        <v>468000</v>
       </c>
       <c r="D19" s="1">
-        <v>410399.99999999994</v>
+        <v>468000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -3361,7 +3360,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>49248</v>
+        <v>56160</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3372,13 +3371,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>478799.99999999994</v>
+        <v>546000</v>
       </c>
       <c r="C20" s="1">
-        <v>478799.99999999994</v>
+        <v>546000</v>
       </c>
       <c r="D20" s="1">
-        <v>478799.99999999994</v>
+        <v>546000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -3393,7 +3392,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>65664</v>
+        <v>74880</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3404,13 +3403,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>547200</v>
+        <v>624000</v>
       </c>
       <c r="C21" s="1">
-        <v>547200</v>
+        <v>624000</v>
       </c>
       <c r="D21" s="1">
-        <v>547200</v>
+        <v>624000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -3425,7 +3424,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>82080</v>
+        <v>93600</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3436,13 +3435,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1170000</v>
       </c>
       <c r="C22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1170000</v>
       </c>
       <c r="D22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1170000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -3457,7 +3456,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>98496</v>
+        <v>112320</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3477,7 +3476,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -3557,28 +3556,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>650</v>
+        <v>156240</v>
       </c>
       <c r="C3" s="1">
-        <v>650</v>
+        <v>156240</v>
       </c>
       <c r="D3" s="1">
-        <v>650</v>
+        <v>156240</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1674</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -3589,28 +3588,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1300</v>
+        <v>178560</v>
       </c>
       <c r="C4" s="1">
-        <v>1300</v>
+        <v>178560</v>
       </c>
       <c r="D4" s="1">
-        <v>1300</v>
+        <v>178560</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I4" s="1">
-        <v>117</v>
+        <v>2232</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -3621,28 +3620,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3900</v>
+        <v>200880</v>
       </c>
       <c r="C5" s="1">
-        <v>3900</v>
+        <v>200880</v>
       </c>
       <c r="D5" s="1">
-        <v>3900</v>
+        <v>200880</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="I5" s="1">
-        <v>195</v>
+        <v>3348</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -3653,28 +3652,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7800</v>
+        <v>223200</v>
       </c>
       <c r="C6" s="1">
-        <v>7800</v>
+        <v>223200</v>
       </c>
       <c r="D6" s="1">
-        <v>7800</v>
+        <v>223200</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I6" s="1">
-        <v>312</v>
+        <v>4464</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -3685,28 +3684,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>23400</v>
+        <v>297600</v>
       </c>
       <c r="C7" s="1">
-        <v>23400</v>
+        <v>297600</v>
       </c>
       <c r="D7" s="1">
-        <v>23400</v>
+        <v>297600</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I7" s="1">
-        <v>585</v>
+        <v>13392</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -3717,28 +3716,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>46800</v>
+        <v>372000</v>
       </c>
       <c r="C8" s="1">
-        <v>46800</v>
+        <v>372000</v>
       </c>
       <c r="D8" s="1">
-        <v>46800</v>
+        <v>372000</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>3600</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>3600</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>3600</v>
       </c>
       <c r="I8" s="1">
-        <v>1170</v>
+        <v>26784</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -3749,28 +3748,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>70200</v>
+        <v>446400</v>
       </c>
       <c r="C9" s="1">
-        <v>70200</v>
+        <v>446400</v>
       </c>
       <c r="D9" s="1">
-        <v>70200</v>
+        <v>446400</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>4200</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>4200</v>
       </c>
       <c r="G9" s="1">
-        <v>10</v>
+        <v>4200</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>4200</v>
       </c>
       <c r="I9" s="1">
-        <v>1755</v>
+        <v>44640</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -3781,28 +3780,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>93600</v>
+        <v>520800</v>
       </c>
       <c r="C10" s="1">
-        <v>93600</v>
+        <v>520800</v>
       </c>
       <c r="D10" s="1">
-        <v>93600</v>
+        <v>520800</v>
       </c>
       <c r="E10" s="1">
-        <v>40</v>
+        <v>4800</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>4800</v>
       </c>
       <c r="G10" s="1">
-        <v>40</v>
+        <v>4800</v>
       </c>
       <c r="H10" s="1">
-        <v>40</v>
+        <v>4800</v>
       </c>
       <c r="I10" s="1">
-        <v>2340</v>
+        <v>71424</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -3813,28 +3812,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>117000</v>
+        <v>595200</v>
       </c>
       <c r="C11" s="1">
-        <v>117000</v>
+        <v>595200</v>
       </c>
       <c r="D11" s="1">
-        <v>117000</v>
+        <v>595200</v>
       </c>
       <c r="E11" s="1">
-        <v>120</v>
+        <v>5400</v>
       </c>
       <c r="F11" s="1">
-        <v>120</v>
+        <v>5400</v>
       </c>
       <c r="G11" s="1">
-        <v>120</v>
+        <v>5400</v>
       </c>
       <c r="H11" s="1">
-        <v>120</v>
+        <v>5400</v>
       </c>
       <c r="I11" s="1">
-        <v>3510</v>
+        <v>107136</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -3845,350 +3844,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>140400</v>
+        <v>1116000</v>
       </c>
       <c r="C12" s="1">
-        <v>140400</v>
+        <v>1116000</v>
       </c>
       <c r="D12" s="1">
-        <v>140400</v>
+        <v>1116000</v>
       </c>
       <c r="E12" s="1">
-        <v>360</v>
+        <v>6000</v>
       </c>
       <c r="F12" s="1">
-        <v>360</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="1">
-        <v>360</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="1">
-        <v>360</v>
+        <v>6000</v>
       </c>
       <c r="I12" s="1">
-        <v>4680</v>
+        <v>142848</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>163800</v>
-      </c>
-      <c r="C13" s="1">
-        <v>163800</v>
-      </c>
-      <c r="D13" s="1">
-        <v>163800</v>
-      </c>
-      <c r="E13" s="1">
-        <v>600</v>
-      </c>
-      <c r="F13" s="1">
-        <v>600</v>
-      </c>
-      <c r="G13" s="1">
-        <v>600</v>
-      </c>
-      <c r="H13" s="1">
-        <v>600</v>
-      </c>
-      <c r="I13" s="1">
-        <v>9360</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>187200</v>
-      </c>
-      <c r="C14" s="1">
-        <v>187200</v>
-      </c>
-      <c r="D14" s="1">
-        <v>187200</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I14" s="1">
-        <v>14040</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>210600</v>
-      </c>
-      <c r="C15" s="1">
-        <v>210600</v>
-      </c>
-      <c r="D15" s="1">
-        <v>210600</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I15" s="1">
-        <v>18720</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>234000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>234000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>234000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I16" s="1">
-        <v>28080</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>312000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>312000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>312000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I17" s="1">
-        <v>37440</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>390000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>390000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>390000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I18" s="1">
-        <v>46800</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>468000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>468000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>468000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>56160</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>546000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>546000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>546000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I20" s="1">
-        <v>74880</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>624000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>624000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>624000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I21" s="1">
-        <v>93600</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1170000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1170000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1170000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>112320</v>
-      </c>
-      <c r="J22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4286,13 +3965,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>156240</v>
+        <v>161280</v>
       </c>
       <c r="C3" s="1">
-        <v>156240</v>
+        <v>161280</v>
       </c>
       <c r="D3" s="1">
-        <v>156240</v>
+        <v>161280</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -4318,13 +3997,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>178560</v>
+        <v>184320</v>
       </c>
       <c r="C4" s="1">
-        <v>178560</v>
+        <v>184320</v>
       </c>
       <c r="D4" s="1">
-        <v>178560</v>
+        <v>184320</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -4350,13 +4029,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>200880</v>
+        <v>207360</v>
       </c>
       <c r="C5" s="1">
-        <v>200880</v>
+        <v>207360</v>
       </c>
       <c r="D5" s="1">
-        <v>200880</v>
+        <v>207360</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -4382,13 +4061,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="C6" s="1">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="D6" s="1">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -4414,13 +4093,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>297600</v>
+        <v>307200</v>
       </c>
       <c r="C7" s="1">
-        <v>297600</v>
+        <v>307200</v>
       </c>
       <c r="D7" s="1">
-        <v>297600</v>
+        <v>307200</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -4446,13 +4125,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>372000</v>
+        <v>384000</v>
       </c>
       <c r="C8" s="1">
-        <v>372000</v>
+        <v>384000</v>
       </c>
       <c r="D8" s="1">
-        <v>372000</v>
+        <v>384000</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -4478,13 +4157,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>446400</v>
+        <v>460800</v>
       </c>
       <c r="C9" s="1">
-        <v>446400</v>
+        <v>460800</v>
       </c>
       <c r="D9" s="1">
-        <v>446400</v>
+        <v>460800</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -4510,13 +4189,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>520800</v>
+        <v>537600</v>
       </c>
       <c r="C10" s="1">
-        <v>520800</v>
+        <v>537600</v>
       </c>
       <c r="D10" s="1">
-        <v>520800</v>
+        <v>537600</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -4542,13 +4221,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>595200</v>
+        <v>614400</v>
       </c>
       <c r="C11" s="1">
-        <v>595200</v>
+        <v>614400</v>
       </c>
       <c r="D11" s="1">
-        <v>595200</v>
+        <v>614400</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -4574,13 +4253,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1116000</v>
+        <v>1152000</v>
       </c>
       <c r="C12" s="1">
-        <v>1116000</v>
+        <v>1152000</v>
       </c>
       <c r="D12" s="1">
-        <v>1116000</v>
+        <v>1152000</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -4695,13 +4374,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>161280</v>
+        <v>166320</v>
       </c>
       <c r="C3" s="1">
-        <v>161280</v>
+        <v>166320</v>
       </c>
       <c r="D3" s="1">
-        <v>161280</v>
+        <v>166320</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -4727,13 +4406,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>184320</v>
+        <v>190080</v>
       </c>
       <c r="C4" s="1">
-        <v>184320</v>
+        <v>190080</v>
       </c>
       <c r="D4" s="1">
-        <v>184320</v>
+        <v>190080</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -4759,13 +4438,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>207360</v>
+        <v>213840</v>
       </c>
       <c r="C5" s="1">
-        <v>207360</v>
+        <v>213840</v>
       </c>
       <c r="D5" s="1">
-        <v>207360</v>
+        <v>213840</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -4791,13 +4470,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>230400</v>
+        <v>237600</v>
       </c>
       <c r="C6" s="1">
-        <v>230400</v>
+        <v>237600</v>
       </c>
       <c r="D6" s="1">
-        <v>230400</v>
+        <v>237600</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -4823,13 +4502,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>307200</v>
+        <v>316800</v>
       </c>
       <c r="C7" s="1">
-        <v>307200</v>
+        <v>316800</v>
       </c>
       <c r="D7" s="1">
-        <v>307200</v>
+        <v>316800</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -4855,13 +4534,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>384000</v>
+        <v>396000</v>
       </c>
       <c r="C8" s="1">
-        <v>384000</v>
+        <v>396000</v>
       </c>
       <c r="D8" s="1">
-        <v>384000</v>
+        <v>396000</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -4887,13 +4566,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>460800</v>
+        <v>475200</v>
       </c>
       <c r="C9" s="1">
-        <v>460800</v>
+        <v>475200</v>
       </c>
       <c r="D9" s="1">
-        <v>460800</v>
+        <v>475200</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -4919,13 +4598,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>537600</v>
+        <v>554400</v>
       </c>
       <c r="C10" s="1">
-        <v>537600</v>
+        <v>554400</v>
       </c>
       <c r="D10" s="1">
-        <v>537600</v>
+        <v>554400</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -4951,13 +4630,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>614400</v>
+        <v>633600</v>
       </c>
       <c r="C11" s="1">
-        <v>614400</v>
+        <v>633600</v>
       </c>
       <c r="D11" s="1">
-        <v>614400</v>
+        <v>633600</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -4983,13 +4662,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1152000</v>
+        <v>1188000</v>
       </c>
       <c r="C12" s="1">
-        <v>1152000</v>
+        <v>1188000</v>
       </c>
       <c r="D12" s="1">
-        <v>1152000</v>
+        <v>1188000</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -5104,13 +4783,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>166320</v>
+        <v>171360</v>
       </c>
       <c r="C3" s="1">
-        <v>166320</v>
+        <v>171360</v>
       </c>
       <c r="D3" s="1">
-        <v>166320</v>
+        <v>171360</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -5136,13 +4815,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>190080</v>
+        <v>195840</v>
       </c>
       <c r="C4" s="1">
-        <v>190080</v>
+        <v>195840</v>
       </c>
       <c r="D4" s="1">
-        <v>190080</v>
+        <v>195840</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -5168,13 +4847,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>213840</v>
+        <v>220320.00000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>213840</v>
+        <v>220320.00000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>213840</v>
+        <v>220320.00000000003</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -5200,13 +4879,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>237600</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>237600</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>237600</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -5232,13 +4911,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>316800</v>
+        <v>326400</v>
       </c>
       <c r="C7" s="1">
-        <v>316800</v>
+        <v>326400</v>
       </c>
       <c r="D7" s="1">
-        <v>316800</v>
+        <v>326400</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -5264,13 +4943,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>396000</v>
+        <v>408000.00000000006</v>
       </c>
       <c r="C8" s="1">
-        <v>396000</v>
+        <v>408000.00000000006</v>
       </c>
       <c r="D8" s="1">
-        <v>396000</v>
+        <v>408000.00000000006</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -5296,13 +4975,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>475200</v>
+        <v>489600.00000000006</v>
       </c>
       <c r="C9" s="1">
-        <v>475200</v>
+        <v>489600.00000000006</v>
       </c>
       <c r="D9" s="1">
-        <v>475200</v>
+        <v>489600.00000000006</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -5328,13 +5007,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>554400</v>
+        <v>571200</v>
       </c>
       <c r="C10" s="1">
-        <v>554400</v>
+        <v>571200</v>
       </c>
       <c r="D10" s="1">
-        <v>554400</v>
+        <v>571200</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -5360,13 +5039,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>633600</v>
+        <v>652800</v>
       </c>
       <c r="C11" s="1">
-        <v>633600</v>
+        <v>652800</v>
       </c>
       <c r="D11" s="1">
-        <v>633600</v>
+        <v>652800</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -5392,13 +5071,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1188000</v>
+        <v>1224000</v>
       </c>
       <c r="C12" s="1">
-        <v>1188000</v>
+        <v>1224000</v>
       </c>
       <c r="D12" s="1">
-        <v>1188000</v>
+        <v>1224000</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -5513,13 +5192,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>171360</v>
+        <v>178919.99999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>171360</v>
+        <v>178919.99999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>171360</v>
+        <v>178919.99999999997</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -5545,13 +5224,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>195840</v>
+        <v>204480</v>
       </c>
       <c r="C4" s="1">
-        <v>195840</v>
+        <v>204480</v>
       </c>
       <c r="D4" s="1">
-        <v>195840</v>
+        <v>204480</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -5577,13 +5256,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>220320.00000000003</v>
+        <v>230040</v>
       </c>
       <c r="C5" s="1">
-        <v>220320.00000000003</v>
+        <v>230040</v>
       </c>
       <c r="D5" s="1">
-        <v>220320.00000000003</v>
+        <v>230040</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -5609,13 +5288,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>244800.00000000003</v>
+        <v>255600</v>
       </c>
       <c r="C6" s="1">
-        <v>244800.00000000003</v>
+        <v>255600</v>
       </c>
       <c r="D6" s="1">
-        <v>244800.00000000003</v>
+        <v>255600</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -5641,13 +5320,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>326400</v>
+        <v>340799.99999999994</v>
       </c>
       <c r="C7" s="1">
-        <v>326400</v>
+        <v>340799.99999999994</v>
       </c>
       <c r="D7" s="1">
-        <v>326400</v>
+        <v>340799.99999999994</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -5673,13 +5352,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>408000.00000000006</v>
+        <v>426000</v>
       </c>
       <c r="C8" s="1">
-        <v>408000.00000000006</v>
+        <v>426000</v>
       </c>
       <c r="D8" s="1">
-        <v>408000.00000000006</v>
+        <v>426000</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -5705,13 +5384,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>489600.00000000006</v>
+        <v>511200</v>
       </c>
       <c r="C9" s="1">
-        <v>489600.00000000006</v>
+        <v>511200</v>
       </c>
       <c r="D9" s="1">
-        <v>489600.00000000006</v>
+        <v>511200</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -5737,13 +5416,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>571200</v>
+        <v>596399.99999999988</v>
       </c>
       <c r="C10" s="1">
-        <v>571200</v>
+        <v>596399.99999999988</v>
       </c>
       <c r="D10" s="1">
-        <v>571200</v>
+        <v>596399.99999999988</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -5769,13 +5448,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>652800</v>
+        <v>681599.99999999988</v>
       </c>
       <c r="C11" s="1">
-        <v>652800</v>
+        <v>681599.99999999988</v>
       </c>
       <c r="D11" s="1">
-        <v>652800</v>
+        <v>681599.99999999988</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -5801,13 +5480,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1224000</v>
+        <v>1277999.9999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1224000</v>
+        <v>1277999.9999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>1224000</v>
+        <v>1277999.9999999998</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -5842,7 +5521,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -5922,28 +5601,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>178919.99999999997</v>
+        <v>32400</v>
       </c>
       <c r="C3" s="1">
-        <v>178919.99999999997</v>
+        <v>32400</v>
       </c>
       <c r="D3" s="1">
-        <v>178919.99999999997</v>
+        <v>32400</v>
       </c>
       <c r="E3" s="1">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>1674</v>
+        <v>2430</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -5954,28 +5633,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>204480</v>
+        <v>64800</v>
       </c>
       <c r="C4" s="1">
-        <v>204480</v>
+        <v>64800</v>
       </c>
       <c r="D4" s="1">
-        <v>204480</v>
+        <v>64800</v>
       </c>
       <c r="E4" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1">
-        <v>2232</v>
+        <v>3240</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -5986,28 +5665,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>230040</v>
+        <v>97200</v>
       </c>
       <c r="C5" s="1">
-        <v>230040</v>
+        <v>97200</v>
       </c>
       <c r="D5" s="1">
-        <v>230040</v>
+        <v>97200</v>
       </c>
       <c r="E5" s="1">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="H5" s="1">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="I5" s="1">
-        <v>3348</v>
+        <v>4860</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -6018,28 +5697,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>255600</v>
+        <v>129600</v>
       </c>
       <c r="C6" s="1">
-        <v>255600</v>
+        <v>129600</v>
       </c>
       <c r="D6" s="1">
-        <v>255600</v>
+        <v>129600</v>
       </c>
       <c r="E6" s="1">
-        <v>2400</v>
+        <v>360</v>
       </c>
       <c r="F6" s="1">
-        <v>2400</v>
+        <v>360</v>
       </c>
       <c r="G6" s="1">
-        <v>2400</v>
+        <v>360</v>
       </c>
       <c r="H6" s="1">
-        <v>2400</v>
+        <v>360</v>
       </c>
       <c r="I6" s="1">
-        <v>4464</v>
+        <v>6480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -6050,28 +5729,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>340799.99999999994</v>
+        <v>162000</v>
       </c>
       <c r="C7" s="1">
-        <v>340799.99999999994</v>
+        <v>162000</v>
       </c>
       <c r="D7" s="1">
-        <v>340799.99999999994</v>
+        <v>162000</v>
       </c>
       <c r="E7" s="1">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="F7" s="1">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G7" s="1">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="H7" s="1">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="I7" s="1">
-        <v>13392</v>
+        <v>12960</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -6082,28 +5761,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>426000</v>
+        <v>194400</v>
       </c>
       <c r="C8" s="1">
-        <v>426000</v>
+        <v>194400</v>
       </c>
       <c r="D8" s="1">
-        <v>426000</v>
+        <v>194400</v>
       </c>
       <c r="E8" s="1">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="F8" s="1">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="1">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="1">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="I8" s="1">
-        <v>26784</v>
+        <v>19440</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -6114,28 +5793,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>511200</v>
+        <v>226800</v>
       </c>
       <c r="C9" s="1">
-        <v>511200</v>
+        <v>226800</v>
       </c>
       <c r="D9" s="1">
-        <v>511200</v>
+        <v>226800</v>
       </c>
       <c r="E9" s="1">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="F9" s="1">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="G9" s="1">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="H9" s="1">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="I9" s="1">
-        <v>44640</v>
+        <v>25920</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -6146,28 +5825,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>596399.99999999988</v>
+        <v>259200</v>
       </c>
       <c r="C10" s="1">
-        <v>596399.99999999988</v>
+        <v>259200</v>
       </c>
       <c r="D10" s="1">
-        <v>596399.99999999988</v>
+        <v>259200</v>
       </c>
       <c r="E10" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="F10" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="G10" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="H10" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="I10" s="1">
-        <v>71424</v>
+        <v>38880</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6178,28 +5857,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>681599.99999999988</v>
+        <v>291600</v>
       </c>
       <c r="C11" s="1">
-        <v>681599.99999999988</v>
+        <v>291600</v>
       </c>
       <c r="D11" s="1">
-        <v>681599.99999999988</v>
+        <v>291600</v>
       </c>
       <c r="E11" s="1">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="F11" s="1">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="G11" s="1">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="H11" s="1">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="I11" s="1">
-        <v>107136</v>
+        <v>51840</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6210,30 +5889,222 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1277999.9999999998</v>
+        <v>324000</v>
       </c>
       <c r="C12" s="1">
-        <v>1277999.9999999998</v>
+        <v>324000</v>
       </c>
       <c r="D12" s="1">
-        <v>1277999.9999999998</v>
+        <v>324000</v>
       </c>
       <c r="E12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="I12" s="1">
+        <v>64800</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>432000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>432000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>432000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="I13" s="1">
+        <v>77760</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>540000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>540000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>540000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="I14" s="1">
+        <v>103680</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>648000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>648000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>648000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="I15" s="1">
+        <v>129600</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>756000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>756000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>756000</v>
+      </c>
+      <c r="E16" s="1">
         <v>6000</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F16" s="1">
         <v>6000</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G16" s="1">
         <v>6000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H16" s="1">
         <v>6000</v>
       </c>
-      <c r="I12" s="1">
-        <v>142848</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I16" s="1">
+        <v>155520</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>864000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>864000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>864000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="I17" s="1">
+        <v>181440</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1620000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1620000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1620000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="I18" s="1">
+        <v>207360</v>
+      </c>
+      <c r="J18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6331,13 +6202,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>32400</v>
+        <v>30240</v>
       </c>
       <c r="C3" s="1">
-        <v>32400</v>
+        <v>30240</v>
       </c>
       <c r="D3" s="1">
-        <v>32400</v>
+        <v>30240</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -6351,8 +6222,8 @@
       <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="I3" s="1">
-        <v>2430</v>
+      <c r="I3" s="3">
+        <v>2268</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -6363,13 +6234,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>64800</v>
+        <v>60480</v>
       </c>
       <c r="C4" s="1">
-        <v>64800</v>
+        <v>60480</v>
       </c>
       <c r="D4" s="1">
-        <v>64800</v>
+        <v>60480</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -6383,8 +6254,8 @@
       <c r="H4" s="1">
         <v>40</v>
       </c>
-      <c r="I4" s="1">
-        <v>3240</v>
+      <c r="I4" s="3">
+        <v>3024</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -6395,13 +6266,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>97200</v>
+        <v>90720</v>
       </c>
       <c r="C5" s="1">
-        <v>97200</v>
+        <v>90720</v>
       </c>
       <c r="D5" s="1">
-        <v>97200</v>
+        <v>90720</v>
       </c>
       <c r="E5" s="1">
         <v>120</v>
@@ -6415,8 +6286,8 @@
       <c r="H5" s="1">
         <v>120</v>
       </c>
-      <c r="I5" s="1">
-        <v>4860</v>
+      <c r="I5" s="3">
+        <v>4536</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -6427,13 +6298,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>129600</v>
+        <v>120960</v>
       </c>
       <c r="C6" s="1">
-        <v>129600</v>
+        <v>120960</v>
       </c>
       <c r="D6" s="1">
-        <v>129600</v>
+        <v>120960</v>
       </c>
       <c r="E6" s="1">
         <v>360</v>
@@ -6447,8 +6318,8 @@
       <c r="H6" s="1">
         <v>360</v>
       </c>
-      <c r="I6" s="1">
-        <v>6480</v>
+      <c r="I6" s="3">
+        <v>6048</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -6459,13 +6330,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>162000</v>
+        <v>151200</v>
       </c>
       <c r="C7" s="1">
-        <v>162000</v>
+        <v>151200</v>
       </c>
       <c r="D7" s="1">
-        <v>162000</v>
+        <v>151200</v>
       </c>
       <c r="E7" s="1">
         <v>600</v>
@@ -6479,8 +6350,8 @@
       <c r="H7" s="1">
         <v>600</v>
       </c>
-      <c r="I7" s="1">
-        <v>12960</v>
+      <c r="I7" s="3">
+        <v>12096</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -6491,13 +6362,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>194400</v>
+        <v>181440</v>
       </c>
       <c r="C8" s="1">
-        <v>194400</v>
+        <v>181440</v>
       </c>
       <c r="D8" s="1">
-        <v>194400</v>
+        <v>181440</v>
       </c>
       <c r="E8" s="1">
         <v>1200</v>
@@ -6511,8 +6382,8 @@
       <c r="H8" s="1">
         <v>1200</v>
       </c>
-      <c r="I8" s="1">
-        <v>19440</v>
+      <c r="I8" s="3">
+        <v>18144</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -6523,13 +6394,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>226800</v>
+        <v>211680</v>
       </c>
       <c r="C9" s="1">
-        <v>226800</v>
+        <v>211680</v>
       </c>
       <c r="D9" s="1">
-        <v>226800</v>
+        <v>211680</v>
       </c>
       <c r="E9" s="1">
         <v>1800</v>
@@ -6543,8 +6414,8 @@
       <c r="H9" s="1">
         <v>1800</v>
       </c>
-      <c r="I9" s="1">
-        <v>25920</v>
+      <c r="I9" s="3">
+        <v>24192</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -6555,13 +6426,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>259200</v>
+        <v>241920</v>
       </c>
       <c r="C10" s="1">
-        <v>259200</v>
+        <v>241920</v>
       </c>
       <c r="D10" s="1">
-        <v>259200</v>
+        <v>241920</v>
       </c>
       <c r="E10" s="1">
         <v>2400</v>
@@ -6575,8 +6446,8 @@
       <c r="H10" s="1">
         <v>2400</v>
       </c>
-      <c r="I10" s="1">
-        <v>38880</v>
+      <c r="I10" s="3">
+        <v>36288</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6587,13 +6458,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>291600</v>
+        <v>272160</v>
       </c>
       <c r="C11" s="1">
-        <v>291600</v>
+        <v>272160</v>
       </c>
       <c r="D11" s="1">
-        <v>291600</v>
+        <v>272160</v>
       </c>
       <c r="E11" s="1">
         <v>3000</v>
@@ -6607,8 +6478,8 @@
       <c r="H11" s="1">
         <v>3000</v>
       </c>
-      <c r="I11" s="1">
-        <v>51840</v>
+      <c r="I11" s="3">
+        <v>48384</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6619,13 +6490,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>324000</v>
+        <v>302400</v>
       </c>
       <c r="C12" s="1">
-        <v>324000</v>
+        <v>302400</v>
       </c>
       <c r="D12" s="1">
-        <v>324000</v>
+        <v>302400</v>
       </c>
       <c r="E12" s="1">
         <v>3600</v>
@@ -6639,8 +6510,8 @@
       <c r="H12" s="1">
         <v>3600</v>
       </c>
-      <c r="I12" s="1">
-        <v>64800</v>
+      <c r="I12" s="3">
+        <v>60480</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -6651,13 +6522,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>432000</v>
+        <v>403200</v>
       </c>
       <c r="C13" s="1">
-        <v>432000</v>
+        <v>403200</v>
       </c>
       <c r="D13" s="1">
-        <v>432000</v>
+        <v>403200</v>
       </c>
       <c r="E13" s="1">
         <v>4200</v>
@@ -6671,8 +6542,8 @@
       <c r="H13" s="1">
         <v>4200</v>
       </c>
-      <c r="I13" s="1">
-        <v>77760</v>
+      <c r="I13" s="3">
+        <v>72576</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -6683,13 +6554,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>540000</v>
+        <v>504000</v>
       </c>
       <c r="C14" s="1">
-        <v>540000</v>
+        <v>504000</v>
       </c>
       <c r="D14" s="1">
-        <v>540000</v>
+        <v>504000</v>
       </c>
       <c r="E14" s="1">
         <v>4800</v>
@@ -6703,8 +6574,8 @@
       <c r="H14" s="1">
         <v>4800</v>
       </c>
-      <c r="I14" s="1">
-        <v>103680</v>
+      <c r="I14" s="3">
+        <v>96768</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -6715,13 +6586,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>648000</v>
+        <v>604800</v>
       </c>
       <c r="C15" s="1">
-        <v>648000</v>
+        <v>604800</v>
       </c>
       <c r="D15" s="1">
-        <v>648000</v>
+        <v>604800</v>
       </c>
       <c r="E15" s="1">
         <v>5400</v>
@@ -6735,8 +6606,8 @@
       <c r="H15" s="1">
         <v>5400</v>
       </c>
-      <c r="I15" s="1">
-        <v>129600</v>
+      <c r="I15" s="3">
+        <v>120960</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -6747,13 +6618,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>756000</v>
+        <v>705600</v>
       </c>
       <c r="C16" s="1">
-        <v>756000</v>
+        <v>705600</v>
       </c>
       <c r="D16" s="1">
-        <v>756000</v>
+        <v>705600</v>
       </c>
       <c r="E16" s="1">
         <v>6000</v>
@@ -6767,8 +6638,8 @@
       <c r="H16" s="1">
         <v>6000</v>
       </c>
-      <c r="I16" s="1">
-        <v>155520</v>
+      <c r="I16" s="3">
+        <v>145152</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -6779,13 +6650,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>864000</v>
+        <v>806400</v>
       </c>
       <c r="C17" s="1">
-        <v>864000</v>
+        <v>806400</v>
       </c>
       <c r="D17" s="1">
-        <v>864000</v>
+        <v>806400</v>
       </c>
       <c r="E17" s="1">
         <v>6600</v>
@@ -6799,8 +6670,8 @@
       <c r="H17" s="1">
         <v>6600</v>
       </c>
-      <c r="I17" s="1">
-        <v>181440</v>
+      <c r="I17" s="3">
+        <v>169344</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -6811,13 +6682,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1620000</v>
+        <v>1512000</v>
       </c>
       <c r="C18" s="1">
-        <v>1620000</v>
+        <v>1512000</v>
       </c>
       <c r="D18" s="1">
-        <v>1620000</v>
+        <v>1512000</v>
       </c>
       <c r="E18" s="1">
         <v>7200</v>
@@ -6831,8 +6702,8 @@
       <c r="H18" s="1">
         <v>7200</v>
       </c>
-      <c r="I18" s="1">
-        <v>207360</v>
+      <c r="I18" s="3">
+        <v>193536</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -6852,7 +6723,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -6932,28 +6803,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>30240</v>
+        <v>230400</v>
       </c>
       <c r="C3" s="1">
-        <v>30240</v>
+        <v>230400</v>
       </c>
       <c r="D3" s="1">
-        <v>30240</v>
+        <v>230400</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2268</v>
+        <v>600</v>
+      </c>
+      <c r="I3" s="1">
+        <v>34128</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -6964,28 +6835,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>60480</v>
+        <v>259200</v>
       </c>
       <c r="C4" s="1">
-        <v>60480</v>
+        <v>259200</v>
       </c>
       <c r="D4" s="1">
-        <v>60480</v>
+        <v>259200</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="F4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="G4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3024</v>
+        <v>1200</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45504</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -6996,28 +6867,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>90720</v>
+        <v>288000</v>
       </c>
       <c r="C5" s="1">
-        <v>90720</v>
+        <v>288000</v>
       </c>
       <c r="D5" s="1">
-        <v>90720</v>
+        <v>288000</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>120</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4536</v>
+        <v>1800</v>
+      </c>
+      <c r="I5" s="1">
+        <v>56880</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -7028,28 +6899,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>120960</v>
+        <v>384000</v>
       </c>
       <c r="C6" s="1">
-        <v>120960</v>
+        <v>384000</v>
       </c>
       <c r="D6" s="1">
-        <v>120960</v>
+        <v>384000</v>
       </c>
       <c r="E6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="F6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="G6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>360</v>
-      </c>
-      <c r="I6" s="3">
-        <v>6048</v>
+        <v>2400</v>
+      </c>
+      <c r="I6" s="1">
+        <v>68256</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -7060,28 +6931,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>151200</v>
+        <v>480000</v>
       </c>
       <c r="C7" s="1">
-        <v>151200</v>
+        <v>480000</v>
       </c>
       <c r="D7" s="1">
-        <v>151200</v>
+        <v>480000</v>
       </c>
       <c r="E7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="G7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>600</v>
-      </c>
-      <c r="I7" s="3">
-        <v>12096</v>
+        <v>3000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>91008</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -7092,28 +6963,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>181440</v>
+        <v>576000</v>
       </c>
       <c r="C8" s="1">
-        <v>181440</v>
+        <v>576000</v>
       </c>
       <c r="D8" s="1">
-        <v>181440</v>
+        <v>576000</v>
       </c>
       <c r="E8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="F8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="G8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>18144</v>
+        <v>3600</v>
+      </c>
+      <c r="I8" s="1">
+        <v>113760</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -7124,28 +6995,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>211680</v>
+        <v>672000</v>
       </c>
       <c r="C9" s="1">
-        <v>211680</v>
+        <v>672000</v>
       </c>
       <c r="D9" s="1">
-        <v>211680</v>
+        <v>672000</v>
       </c>
       <c r="E9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="F9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="G9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="H9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>24192</v>
+        <v>4200</v>
+      </c>
+      <c r="I9" s="1">
+        <v>136512</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -7156,28 +7027,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>241920</v>
+        <v>768000</v>
       </c>
       <c r="C10" s="1">
-        <v>241920</v>
+        <v>768000</v>
       </c>
       <c r="D10" s="1">
-        <v>241920</v>
+        <v>768000</v>
       </c>
       <c r="E10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="G10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="H10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>36288</v>
+        <v>4800</v>
+      </c>
+      <c r="I10" s="1">
+        <v>159264</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -7188,28 +7059,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>272160</v>
+        <v>1440000</v>
       </c>
       <c r="C11" s="1">
-        <v>272160</v>
+        <v>1440000</v>
       </c>
       <c r="D11" s="1">
-        <v>272160</v>
+        <v>1440000</v>
       </c>
       <c r="E11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="F11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="G11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="H11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>48384</v>
+        <v>5400</v>
+      </c>
+      <c r="I11" s="1">
+        <v>182016</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -7220,222 +7091,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>302400</v>
+        <v>2880000</v>
       </c>
       <c r="C12" s="1">
-        <v>302400</v>
+        <v>2880000</v>
       </c>
       <c r="D12" s="1">
-        <v>302400</v>
+        <v>2880000</v>
       </c>
       <c r="E12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="F12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>60480</v>
+        <v>6000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>204768</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="C13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="D13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I13" s="3">
-        <v>72576</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>96768</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="C15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="D15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>120960</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="C16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="D16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I16" s="3">
-        <v>145152</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="C17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="D17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>169344</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="H18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>193536</v>
-      </c>
-      <c r="J18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7456,7 +7135,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7533,13 +7212,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -7554,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -7565,13 +7244,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="C4" s="1">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="D4" s="1">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -7586,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -7597,13 +7276,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6000</v>
+        <v>2040.0000000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>6000</v>
+        <v>2040.0000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>6000</v>
+        <v>2040.0000000000002</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -7618,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -7629,13 +7308,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>12000</v>
+        <v>4080.0000000000005</v>
       </c>
       <c r="C6" s="1">
-        <v>12000</v>
+        <v>4080.0000000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>12000</v>
+        <v>4080.0000000000005</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -7650,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>480</v>
+        <v>163</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -7661,13 +7340,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>36000</v>
+        <v>12240</v>
       </c>
       <c r="C7" s="1">
-        <v>36000</v>
+        <v>12240</v>
       </c>
       <c r="D7" s="1">
-        <v>36000</v>
+        <v>12240</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -7682,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>900</v>
+        <v>306</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -7693,13 +7372,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>72000</v>
+        <v>24480</v>
       </c>
       <c r="C8" s="1">
-        <v>72000</v>
+        <v>24480</v>
       </c>
       <c r="D8" s="1">
-        <v>72000</v>
+        <v>24480</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -7714,7 +7393,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1800</v>
+        <v>612</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -7725,13 +7404,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>108000</v>
+        <v>36720</v>
       </c>
       <c r="C9" s="1">
-        <v>108000</v>
+        <v>36720</v>
       </c>
       <c r="D9" s="1">
-        <v>108000</v>
+        <v>36720</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -7746,7 +7425,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2700</v>
+        <v>918</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -7757,13 +7436,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>144000</v>
+        <v>48960</v>
       </c>
       <c r="C10" s="1">
-        <v>144000</v>
+        <v>48960</v>
       </c>
       <c r="D10" s="1">
-        <v>144000</v>
+        <v>48960</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -7778,7 +7457,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>3600</v>
+        <v>1224</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -7789,13 +7468,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>180000</v>
+        <v>61200.000000000007</v>
       </c>
       <c r="C11" s="1">
-        <v>180000</v>
+        <v>61200.000000000007</v>
       </c>
       <c r="D11" s="1">
-        <v>180000</v>
+        <v>61200.000000000007</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -7810,7 +7489,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>5400</v>
+        <v>1836</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -7821,13 +7500,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>216000</v>
+        <v>73440</v>
       </c>
       <c r="C12" s="1">
-        <v>216000</v>
+        <v>73440</v>
       </c>
       <c r="D12" s="1">
-        <v>216000</v>
+        <v>73440</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -7842,7 +7521,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>7200</v>
+        <v>2448</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -7853,13 +7532,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>252000</v>
+        <v>85680</v>
       </c>
       <c r="C13" s="1">
-        <v>252000</v>
+        <v>85680</v>
       </c>
       <c r="D13" s="1">
-        <v>252000</v>
+        <v>85680</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -7874,7 +7553,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>14400</v>
+        <v>4896</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -7885,13 +7564,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>288000</v>
+        <v>97920</v>
       </c>
       <c r="C14" s="1">
-        <v>288000</v>
+        <v>97920</v>
       </c>
       <c r="D14" s="1">
-        <v>288000</v>
+        <v>97920</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -7906,7 +7585,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>21600</v>
+        <v>7344</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -7917,13 +7596,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>324000</v>
+        <v>110160.00000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>324000</v>
+        <v>110160.00000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>324000</v>
+        <v>110160.00000000001</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -7938,7 +7617,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>28800</v>
+        <v>9792</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -7949,13 +7628,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>360000</v>
+        <v>122400.00000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>360000</v>
+        <v>122400.00000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>360000</v>
+        <v>122400.00000000001</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -7970,7 +7649,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>43200</v>
+        <v>14688</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7981,13 +7660,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>480000</v>
+        <v>163200</v>
       </c>
       <c r="C17" s="1">
-        <v>480000</v>
+        <v>163200</v>
       </c>
       <c r="D17" s="1">
-        <v>480000</v>
+        <v>163200</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -8002,7 +7681,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>57600</v>
+        <v>19584</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -8013,13 +7692,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>600000</v>
+        <v>204000.00000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>600000</v>
+        <v>204000.00000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>600000</v>
+        <v>204000.00000000003</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -8034,7 +7713,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>72000</v>
+        <v>24480</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -8045,13 +7724,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>720000</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>720000</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>720000</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -8066,7 +7745,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>86400</v>
+        <v>29376</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -8077,13 +7756,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>840000</v>
+        <v>285600</v>
       </c>
       <c r="C20" s="1">
-        <v>840000</v>
+        <v>285600</v>
       </c>
       <c r="D20" s="1">
-        <v>840000</v>
+        <v>285600</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -8098,7 +7777,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>115200</v>
+        <v>39168</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -8109,13 +7788,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>960000</v>
+        <v>326400</v>
       </c>
       <c r="C21" s="1">
-        <v>960000</v>
+        <v>326400</v>
       </c>
       <c r="D21" s="1">
-        <v>960000</v>
+        <v>326400</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -8130,7 +7809,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>144000</v>
+        <v>48960</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -8141,13 +7820,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1800000</v>
+        <v>612000</v>
       </c>
       <c r="C22" s="1">
-        <v>1800000</v>
+        <v>612000</v>
       </c>
       <c r="D22" s="1">
-        <v>1800000</v>
+        <v>612000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -8162,7 +7841,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>172800</v>
+        <v>58752</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -8594,7 +8273,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8603,8 +8282,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+      <c r="A1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9820,417 +9499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="C3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="D3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="E3" s="1">
-        <v>600</v>
-      </c>
-      <c r="F3" s="1">
-        <v>600</v>
-      </c>
-      <c r="G3" s="1">
-        <v>600</v>
-      </c>
-      <c r="H3" s="1">
-        <v>600</v>
-      </c>
-      <c r="I3" s="1">
-        <v>34128</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="D4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45504</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I5" s="1">
-        <v>56880</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I6" s="1">
-        <v>68256</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>91008</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I8" s="1">
-        <v>113760</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I9" s="1">
-        <v>136512</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I10" s="1">
-        <v>159264</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I11" s="1">
-        <v>182016</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>204768</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10636,10 +9906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10672,8 +9942,8 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
@@ -10737,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -11348,6 +10618,70 @@
         <v>172800</v>
       </c>
       <c r="J22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="I23" s="1">
+        <v>201600</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6400000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6400000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6400000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7200</v>
+      </c>
+      <c r="H24" s="1">
+        <v>7200</v>
+      </c>
+      <c r="I24" s="1">
+        <v>230400</v>
+      </c>
+      <c r="J24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -11365,10 +10699,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11445,13 +10779,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -11466,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -11477,13 +10811,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1720</v>
+        <v>2000</v>
       </c>
       <c r="C4" s="1">
-        <v>1720</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="1">
-        <v>1720</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -11498,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -11509,13 +10843,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5160</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="1">
-        <v>5160</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="1">
-        <v>5160</v>
+        <v>6000</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -11530,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -11541,13 +10875,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>10320</v>
+        <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>10320</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="1">
-        <v>10320</v>
+        <v>12000</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -11562,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -11573,13 +10907,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>30960</v>
+        <v>36000</v>
       </c>
       <c r="C7" s="1">
-        <v>30960</v>
+        <v>36000</v>
       </c>
       <c r="D7" s="1">
-        <v>30960</v>
+        <v>36000</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -11594,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>774</v>
+        <v>900</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -11605,13 +10939,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>61920</v>
+        <v>72000</v>
       </c>
       <c r="C8" s="1">
-        <v>61920</v>
+        <v>72000</v>
       </c>
       <c r="D8" s="1">
-        <v>61920</v>
+        <v>72000</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -11626,7 +10960,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1548</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -11637,13 +10971,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>92880</v>
+        <v>108000</v>
       </c>
       <c r="C9" s="1">
-        <v>92880</v>
+        <v>108000</v>
       </c>
       <c r="D9" s="1">
-        <v>92880</v>
+        <v>108000</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -11658,7 +10992,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2322</v>
+        <v>2700</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -11669,13 +11003,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>123840</v>
+        <v>144000</v>
       </c>
       <c r="C10" s="1">
-        <v>123840</v>
+        <v>144000</v>
       </c>
       <c r="D10" s="1">
-        <v>123840</v>
+        <v>144000</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -11690,7 +11024,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>3096</v>
+        <v>3600</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -11701,13 +11035,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>154800</v>
+        <v>180000</v>
       </c>
       <c r="C11" s="1">
-        <v>154800</v>
+        <v>180000</v>
       </c>
       <c r="D11" s="1">
-        <v>154800</v>
+        <v>180000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -11722,7 +11056,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>4644</v>
+        <v>5400</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -11733,13 +11067,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>185760</v>
+        <v>216000</v>
       </c>
       <c r="C12" s="1">
-        <v>185760</v>
+        <v>216000</v>
       </c>
       <c r="D12" s="1">
-        <v>185760</v>
+        <v>216000</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -11754,7 +11088,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>6192</v>
+        <v>7200</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -11765,13 +11099,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>216720</v>
+        <v>252000</v>
       </c>
       <c r="C13" s="1">
-        <v>216720</v>
+        <v>252000</v>
       </c>
       <c r="D13" s="1">
-        <v>216720</v>
+        <v>252000</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -11786,7 +11120,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>12384</v>
+        <v>14400</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -11797,13 +11131,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>247680</v>
+        <v>288000</v>
       </c>
       <c r="C14" s="1">
-        <v>247680</v>
+        <v>288000</v>
       </c>
       <c r="D14" s="1">
-        <v>247680</v>
+        <v>288000</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -11818,7 +11152,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>18576</v>
+        <v>21600</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -11829,13 +11163,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>278640</v>
+        <v>324000</v>
       </c>
       <c r="C15" s="1">
-        <v>278640</v>
+        <v>324000</v>
       </c>
       <c r="D15" s="1">
-        <v>278640</v>
+        <v>324000</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -11850,7 +11184,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>24768</v>
+        <v>28800</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -11861,13 +11195,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>309600</v>
+        <v>360000</v>
       </c>
       <c r="C16" s="1">
-        <v>309600</v>
+        <v>360000</v>
       </c>
       <c r="D16" s="1">
-        <v>309600</v>
+        <v>360000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -11882,7 +11216,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>37152</v>
+        <v>43200</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -11893,13 +11227,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>412800</v>
+        <v>480000</v>
       </c>
       <c r="C17" s="1">
-        <v>412800</v>
+        <v>480000</v>
       </c>
       <c r="D17" s="1">
-        <v>412800</v>
+        <v>480000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -11914,7 +11248,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>49536</v>
+        <v>57600</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -11925,13 +11259,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>516000</v>
+        <v>600000</v>
       </c>
       <c r="C18" s="1">
-        <v>516000</v>
+        <v>600000</v>
       </c>
       <c r="D18" s="1">
-        <v>516000</v>
+        <v>600000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -11946,7 +11280,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>61920</v>
+        <v>72000</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -11957,13 +11291,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>619200</v>
+        <v>720000</v>
       </c>
       <c r="C19" s="1">
-        <v>619200</v>
+        <v>720000</v>
       </c>
       <c r="D19" s="1">
-        <v>619200</v>
+        <v>720000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -11978,7 +11312,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>74304</v>
+        <v>86400</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -11989,13 +11323,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>722400</v>
+        <v>840000</v>
       </c>
       <c r="C20" s="1">
-        <v>722400</v>
+        <v>840000</v>
       </c>
       <c r="D20" s="1">
-        <v>722400</v>
+        <v>840000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -12010,7 +11344,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>99072</v>
+        <v>115200</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -12021,13 +11355,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>825600</v>
+        <v>960000</v>
       </c>
       <c r="C21" s="1">
-        <v>825600</v>
+        <v>960000</v>
       </c>
       <c r="D21" s="1">
-        <v>825600</v>
+        <v>960000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -12042,7 +11376,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>123840</v>
+        <v>144000</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -12053,13 +11387,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1548000</v>
+        <v>1800000</v>
       </c>
       <c r="C22" s="1">
-        <v>1548000</v>
+        <v>1800000</v>
       </c>
       <c r="D22" s="1">
-        <v>1548000</v>
+        <v>1800000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -12074,73 +11408,9 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>148608</v>
+        <v>172800</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3096000</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3096000</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3096000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>6600</v>
-      </c>
-      <c r="F23" s="1">
-        <v>6600</v>
-      </c>
-      <c r="G23" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H23" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I23" s="1">
-        <v>173376</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5504000</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5504000</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5504000</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F24" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G24" s="1">
-        <v>7200</v>
-      </c>
-      <c r="H24" s="1">
-        <v>7200</v>
-      </c>
-      <c r="I24" s="1">
-        <v>198144</v>
-      </c>
-      <c r="J24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -12161,7 +11431,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12238,13 +11508,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -12259,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -12270,13 +11540,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="C4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -12291,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -12302,13 +11572,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -12323,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -12334,13 +11604,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -12355,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>288</v>
+        <v>480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -12366,13 +11636,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="C7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="D7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -12387,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -12398,13 +11668,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="C8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="D8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -12419,7 +11689,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -12430,13 +11700,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="C9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="D9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -12451,7 +11721,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1620</v>
+        <v>2700</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -12462,13 +11732,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="C10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="D10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -12483,7 +11753,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2160</v>
+        <v>3600</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -12494,13 +11764,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="C11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="D11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -12515,7 +11785,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3240</v>
+        <v>5400</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -12526,13 +11796,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="C12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="D12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -12547,7 +11817,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4320</v>
+        <v>7200</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -12558,13 +11828,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="C13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="D13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -12579,7 +11849,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>8640</v>
+        <v>14400</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -12590,13 +11860,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="C14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="D14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -12611,7 +11881,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>12960</v>
+        <v>21600</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -12622,13 +11892,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="C15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="D15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -12643,7 +11913,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>17280</v>
+        <v>28800</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -12654,13 +11924,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="C16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="D16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -12675,7 +11945,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>25920</v>
+        <v>43200</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -12686,13 +11956,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="C17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="D17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -12707,7 +11977,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>34560</v>
+        <v>57600</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -12718,13 +11988,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="C18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="D18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -12739,7 +12009,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -12750,13 +12020,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="C19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="D19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -12771,7 +12041,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>51840</v>
+        <v>86400</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -12782,13 +12052,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="C20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="D20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -12803,7 +12073,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>69120</v>
+        <v>115200</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -12814,13 +12084,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="C21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="D21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -12835,7 +12105,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -12846,13 +12116,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="C22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="D22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -12867,7 +12137,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>103680</v>
+        <v>172800</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -12890,7 +12160,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12967,13 +12237,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="D3" s="1">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -12988,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -12999,13 +12269,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="1">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="D4" s="1">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -13020,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -13031,13 +12301,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2040.0000000000002</v>
+        <v>3600</v>
       </c>
       <c r="C5" s="1">
-        <v>2040.0000000000002</v>
+        <v>3600</v>
       </c>
       <c r="D5" s="1">
-        <v>2040.0000000000002</v>
+        <v>3600</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -13052,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -13063,13 +12333,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4080.0000000000005</v>
+        <v>7200</v>
       </c>
       <c r="C6" s="1">
-        <v>4080.0000000000005</v>
+        <v>7200</v>
       </c>
       <c r="D6" s="1">
-        <v>4080.0000000000005</v>
+        <v>7200</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -13084,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -13095,13 +12365,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>12240</v>
+        <v>21600</v>
       </c>
       <c r="C7" s="1">
-        <v>12240</v>
+        <v>21600</v>
       </c>
       <c r="D7" s="1">
-        <v>12240</v>
+        <v>21600</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -13116,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>306</v>
+        <v>540</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -13127,13 +12397,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>24480</v>
+        <v>43200</v>
       </c>
       <c r="C8" s="1">
-        <v>24480</v>
+        <v>43200</v>
       </c>
       <c r="D8" s="1">
-        <v>24480</v>
+        <v>43200</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -13148,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>612</v>
+        <v>1080</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -13159,13 +12429,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>36720</v>
+        <v>64800</v>
       </c>
       <c r="C9" s="1">
-        <v>36720</v>
+        <v>64800</v>
       </c>
       <c r="D9" s="1">
-        <v>36720</v>
+        <v>64800</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -13180,7 +12450,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>918</v>
+        <v>1620</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -13191,13 +12461,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>48960</v>
+        <v>86400</v>
       </c>
       <c r="C10" s="1">
-        <v>48960</v>
+        <v>86400</v>
       </c>
       <c r="D10" s="1">
-        <v>48960</v>
+        <v>86400</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -13212,7 +12482,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>1224</v>
+        <v>2160</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -13223,13 +12493,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>61200.000000000007</v>
+        <v>108000</v>
       </c>
       <c r="C11" s="1">
-        <v>61200.000000000007</v>
+        <v>108000</v>
       </c>
       <c r="D11" s="1">
-        <v>61200.000000000007</v>
+        <v>108000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -13244,7 +12514,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>1836</v>
+        <v>3240</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -13255,13 +12525,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>73440</v>
+        <v>129600</v>
       </c>
       <c r="C12" s="1">
-        <v>73440</v>
+        <v>129600</v>
       </c>
       <c r="D12" s="1">
-        <v>73440</v>
+        <v>129600</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -13276,7 +12546,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>2448</v>
+        <v>4320</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -13287,13 +12557,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>85680</v>
+        <v>151200</v>
       </c>
       <c r="C13" s="1">
-        <v>85680</v>
+        <v>151200</v>
       </c>
       <c r="D13" s="1">
-        <v>85680</v>
+        <v>151200</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -13308,7 +12578,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>4896</v>
+        <v>8640</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -13319,13 +12589,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>97920</v>
+        <v>172800</v>
       </c>
       <c r="C14" s="1">
-        <v>97920</v>
+        <v>172800</v>
       </c>
       <c r="D14" s="1">
-        <v>97920</v>
+        <v>172800</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -13340,7 +12610,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>7344</v>
+        <v>12960</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -13351,13 +12621,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>110160.00000000001</v>
+        <v>194400</v>
       </c>
       <c r="C15" s="1">
-        <v>110160.00000000001</v>
+        <v>194400</v>
       </c>
       <c r="D15" s="1">
-        <v>110160.00000000001</v>
+        <v>194400</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -13372,7 +12642,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>9792</v>
+        <v>17280</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -13383,13 +12653,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>122400.00000000001</v>
+        <v>216000</v>
       </c>
       <c r="C16" s="1">
-        <v>122400.00000000001</v>
+        <v>216000</v>
       </c>
       <c r="D16" s="1">
-        <v>122400.00000000001</v>
+        <v>216000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -13404,7 +12674,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>14688</v>
+        <v>25920</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -13415,13 +12685,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>163200</v>
+        <v>288000</v>
       </c>
       <c r="C17" s="1">
-        <v>163200</v>
+        <v>288000</v>
       </c>
       <c r="D17" s="1">
-        <v>163200</v>
+        <v>288000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -13436,7 +12706,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>19584</v>
+        <v>34560</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -13447,13 +12717,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>204000.00000000003</v>
+        <v>360000</v>
       </c>
       <c r="C18" s="1">
-        <v>204000.00000000003</v>
+        <v>360000</v>
       </c>
       <c r="D18" s="1">
-        <v>204000.00000000003</v>
+        <v>360000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -13468,7 +12738,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>24480</v>
+        <v>43200</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -13479,13 +12749,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>244800.00000000003</v>
+        <v>432000</v>
       </c>
       <c r="C19" s="1">
-        <v>244800.00000000003</v>
+        <v>432000</v>
       </c>
       <c r="D19" s="1">
-        <v>244800.00000000003</v>
+        <v>432000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -13500,7 +12770,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>29376</v>
+        <v>51840</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -13511,13 +12781,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>285600</v>
+        <v>504000</v>
       </c>
       <c r="C20" s="1">
-        <v>285600</v>
+        <v>504000</v>
       </c>
       <c r="D20" s="1">
-        <v>285600</v>
+        <v>504000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -13532,7 +12802,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>39168</v>
+        <v>69120</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -13543,13 +12813,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>326400</v>
+        <v>576000</v>
       </c>
       <c r="C21" s="1">
-        <v>326400</v>
+        <v>576000</v>
       </c>
       <c r="D21" s="1">
-        <v>326400</v>
+        <v>576000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -13564,7 +12834,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>48960</v>
+        <v>86400</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -13575,13 +12845,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>612000</v>
+        <v>1080000</v>
       </c>
       <c r="C22" s="1">
-        <v>612000</v>
+        <v>1080000</v>
       </c>
       <c r="D22" s="1">
-        <v>612000</v>
+        <v>1080000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -13596,7 +12866,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>58752</v>
+        <v>103680</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -13618,8 +12888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13696,13 +12966,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="C3" s="1">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="D3" s="1">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -13717,10 +12987,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
@@ -13728,13 +12998,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>700</v>
+        <v>1440</v>
       </c>
       <c r="C4" s="1">
-        <v>700</v>
+        <v>1440</v>
       </c>
       <c r="D4" s="1">
-        <v>700</v>
+        <v>1440</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -13749,10 +13019,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="J4" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
@@ -13760,13 +13030,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2100</v>
+        <v>4320</v>
       </c>
       <c r="C5" s="1">
-        <v>2100</v>
+        <v>4320</v>
       </c>
       <c r="D5" s="1">
-        <v>2100</v>
+        <v>4320</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -13781,10 +13051,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="J5" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
@@ -13792,13 +13062,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4200</v>
+        <v>8640</v>
       </c>
       <c r="C6" s="1">
-        <v>4200</v>
+        <v>8640</v>
       </c>
       <c r="D6" s="1">
-        <v>4200</v>
+        <v>8640</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -13813,10 +13083,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>180</v>
+        <v>346</v>
       </c>
       <c r="J6" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
@@ -13824,13 +13094,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>12600</v>
+        <v>25920</v>
       </c>
       <c r="C7" s="1">
-        <v>12600</v>
+        <v>25920</v>
       </c>
       <c r="D7" s="1">
-        <v>12600</v>
+        <v>25920</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -13845,10 +13115,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>240</v>
+        <v>648</v>
       </c>
       <c r="J7" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
@@ -13856,31 +13126,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>25200</v>
+        <v>51840</v>
       </c>
       <c r="C8" s="1">
-        <v>25200</v>
+        <v>51840</v>
       </c>
       <c r="D8" s="1">
-        <v>25200</v>
+        <v>51840</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>630</v>
+        <v>1296</v>
       </c>
       <c r="J8" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
@@ -13888,31 +13158,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>37800</v>
+        <v>77760</v>
       </c>
       <c r="C9" s="1">
-        <v>37800</v>
+        <v>77760</v>
       </c>
       <c r="D9" s="1">
-        <v>37800</v>
+        <v>77760</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>945</v>
+        <v>1944</v>
       </c>
       <c r="J9" s="1">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
@@ -13920,31 +13190,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>50400</v>
+        <v>103680</v>
       </c>
       <c r="C10" s="1">
-        <v>50400</v>
+        <v>103680</v>
       </c>
       <c r="D10" s="1">
-        <v>50400</v>
+        <v>103680</v>
       </c>
       <c r="E10" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>1260</v>
+        <v>2592</v>
       </c>
       <c r="J10" s="1">
-        <v>2400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
@@ -13952,31 +13222,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>62999.999999999993</v>
+        <v>129600</v>
       </c>
       <c r="C11" s="1">
-        <v>62999.999999999993</v>
+        <v>129600</v>
       </c>
       <c r="D11" s="1">
-        <v>62999.999999999993</v>
+        <v>129600</v>
       </c>
       <c r="E11" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>1890</v>
+        <v>3888</v>
       </c>
       <c r="J11" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
@@ -13984,31 +13254,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>75600</v>
+        <v>155520</v>
       </c>
       <c r="C12" s="1">
-        <v>75600</v>
+        <v>155520</v>
       </c>
       <c r="D12" s="1">
-        <v>75600</v>
+        <v>155520</v>
       </c>
       <c r="E12" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="F12" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G12" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H12" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>2520</v>
+        <v>5184</v>
       </c>
       <c r="J12" s="1">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
@@ -14016,31 +13286,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>88200</v>
+        <v>181440</v>
       </c>
       <c r="C13" s="1">
-        <v>88200</v>
+        <v>181440</v>
       </c>
       <c r="D13" s="1">
-        <v>88200</v>
+        <v>181440</v>
       </c>
       <c r="E13" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F13" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G13" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H13" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>5040</v>
+        <v>10368</v>
       </c>
       <c r="J13" s="1">
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
@@ -14048,31 +13318,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>100800</v>
+        <v>207360</v>
       </c>
       <c r="C14" s="1">
-        <v>100800</v>
+        <v>207360</v>
       </c>
       <c r="D14" s="1">
-        <v>100800</v>
+        <v>207360</v>
       </c>
       <c r="E14" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="H14" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>7560</v>
+        <v>15552</v>
       </c>
       <c r="J14" s="1">
-        <v>4800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
@@ -14080,31 +13350,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>113400</v>
+        <v>233280</v>
       </c>
       <c r="C15" s="1">
-        <v>113400</v>
+        <v>233280</v>
       </c>
       <c r="D15" s="1">
-        <v>113400</v>
+        <v>233280</v>
       </c>
       <c r="E15" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F15" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="G15" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="H15" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>10080</v>
+        <v>20736</v>
       </c>
       <c r="J15" s="1">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
@@ -14112,31 +13382,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>125999.99999999999</v>
+        <v>259200</v>
       </c>
       <c r="C16" s="1">
-        <v>125999.99999999999</v>
+        <v>259200</v>
       </c>
       <c r="D16" s="1">
-        <v>125999.99999999999</v>
+        <v>259200</v>
       </c>
       <c r="E16" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F16" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G16" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>15120</v>
+        <v>31104</v>
       </c>
       <c r="J16" s="1">
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
@@ -14144,31 +13414,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>168000</v>
+        <v>345600</v>
       </c>
       <c r="C17" s="1">
-        <v>168000</v>
+        <v>345600</v>
       </c>
       <c r="D17" s="1">
-        <v>168000</v>
+        <v>345600</v>
       </c>
       <c r="E17" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G17" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H17" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>20160</v>
+        <v>41472</v>
       </c>
       <c r="J17" s="1">
-        <v>6600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
@@ -14176,31 +13446,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>210000</v>
+        <v>432000</v>
       </c>
       <c r="C18" s="1">
-        <v>210000</v>
+        <v>432000</v>
       </c>
       <c r="D18" s="1">
-        <v>210000</v>
+        <v>432000</v>
       </c>
       <c r="E18" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F18" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="G18" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="H18" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>25200</v>
+        <v>51840</v>
       </c>
       <c r="J18" s="1">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
@@ -14208,31 +13478,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>251999.99999999997</v>
+        <v>518400</v>
       </c>
       <c r="C19" s="1">
-        <v>251999.99999999997</v>
+        <v>518400</v>
       </c>
       <c r="D19" s="1">
-        <v>251999.99999999997</v>
+        <v>518400</v>
       </c>
       <c r="E19" s="1">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="F19" s="1">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="G19" s="1">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="H19" s="1">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>30240</v>
+        <v>62208</v>
       </c>
       <c r="J19" s="1">
-        <v>7800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
@@ -14240,31 +13510,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>294000</v>
+        <v>604800</v>
       </c>
       <c r="C20" s="1">
-        <v>294000</v>
+        <v>604800</v>
       </c>
       <c r="D20" s="1">
-        <v>294000</v>
+        <v>604800</v>
       </c>
       <c r="E20" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F20" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="G20" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="H20" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>40320</v>
+        <v>82944</v>
       </c>
       <c r="J20" s="1">
-        <v>8400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
@@ -14272,31 +13542,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>336000</v>
+        <v>691200</v>
       </c>
       <c r="C21" s="1">
-        <v>336000</v>
+        <v>691200</v>
       </c>
       <c r="D21" s="1">
-        <v>336000</v>
+        <v>691200</v>
       </c>
       <c r="E21" s="1">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="F21" s="1">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="G21" s="1">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="H21" s="1">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>50400</v>
+        <v>103680</v>
       </c>
       <c r="J21" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
@@ -14304,31 +13574,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>630000</v>
+        <v>1296000</v>
       </c>
       <c r="C22" s="1">
-        <v>630000</v>
+        <v>1296000</v>
       </c>
       <c r="D22" s="1">
-        <v>630000</v>
+        <v>1296000</v>
       </c>
       <c r="E22" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F22" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G22" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>60480</v>
+        <v>124416</v>
       </c>
       <c r="J22" s="1">
-        <v>9600</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14348,7 +13618,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14425,13 +13695,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="C3" s="1">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="D3" s="1">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -14446,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -14457,13 +13727,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="C4" s="1">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="D4" s="1">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -14478,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -14489,13 +13759,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4320</v>
+        <v>4440</v>
       </c>
       <c r="C5" s="1">
-        <v>4320</v>
+        <v>4440</v>
       </c>
       <c r="D5" s="1">
-        <v>4320</v>
+        <v>4440</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -14510,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -14521,13 +13791,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8640</v>
+        <v>8880</v>
       </c>
       <c r="C6" s="1">
-        <v>8640</v>
+        <v>8880</v>
       </c>
       <c r="D6" s="1">
-        <v>8640</v>
+        <v>8880</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -14542,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -14553,13 +13823,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>25920</v>
+        <v>26640</v>
       </c>
       <c r="C7" s="1">
-        <v>25920</v>
+        <v>26640</v>
       </c>
       <c r="D7" s="1">
-        <v>25920</v>
+        <v>26640</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -14574,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -14585,13 +13855,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>51840</v>
+        <v>53280</v>
       </c>
       <c r="C8" s="1">
-        <v>51840</v>
+        <v>53280</v>
       </c>
       <c r="D8" s="1">
-        <v>51840</v>
+        <v>53280</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -14606,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1296</v>
+        <v>1332</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -14617,13 +13887,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>77760</v>
+        <v>79920</v>
       </c>
       <c r="C9" s="1">
-        <v>77760</v>
+        <v>79920</v>
       </c>
       <c r="D9" s="1">
-        <v>77760</v>
+        <v>79920</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -14638,7 +13908,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1944</v>
+        <v>1998</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -14649,13 +13919,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>103680</v>
+        <v>106560</v>
       </c>
       <c r="C10" s="1">
-        <v>103680</v>
+        <v>106560</v>
       </c>
       <c r="D10" s="1">
-        <v>103680</v>
+        <v>106560</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -14670,7 +13940,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2592</v>
+        <v>2664</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -14681,13 +13951,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>129600</v>
+        <v>133200</v>
       </c>
       <c r="C11" s="1">
-        <v>129600</v>
+        <v>133200</v>
       </c>
       <c r="D11" s="1">
-        <v>129600</v>
+        <v>133200</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -14702,7 +13972,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3888</v>
+        <v>3996</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -14713,13 +13983,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>155520</v>
+        <v>159840</v>
       </c>
       <c r="C12" s="1">
-        <v>155520</v>
+        <v>159840</v>
       </c>
       <c r="D12" s="1">
-        <v>155520</v>
+        <v>159840</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -14734,7 +14004,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>5184</v>
+        <v>5328</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -14745,13 +14015,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>181440</v>
+        <v>186480</v>
       </c>
       <c r="C13" s="1">
-        <v>181440</v>
+        <v>186480</v>
       </c>
       <c r="D13" s="1">
-        <v>181440</v>
+        <v>186480</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -14766,7 +14036,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>10368</v>
+        <v>10656</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -14777,13 +14047,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>207360</v>
+        <v>213120</v>
       </c>
       <c r="C14" s="1">
-        <v>207360</v>
+        <v>213120</v>
       </c>
       <c r="D14" s="1">
-        <v>207360</v>
+        <v>213120</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -14798,7 +14068,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>15552</v>
+        <v>15984</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -14809,13 +14079,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>233280</v>
+        <v>239760</v>
       </c>
       <c r="C15" s="1">
-        <v>233280</v>
+        <v>239760</v>
       </c>
       <c r="D15" s="1">
-        <v>233280</v>
+        <v>239760</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -14830,7 +14100,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>20736</v>
+        <v>21312</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -14841,13 +14111,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>259200</v>
+        <v>266400</v>
       </c>
       <c r="C16" s="1">
-        <v>259200</v>
+        <v>266400</v>
       </c>
       <c r="D16" s="1">
-        <v>259200</v>
+        <v>266400</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -14862,7 +14132,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>31104</v>
+        <v>31968</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -14873,13 +14143,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>345600</v>
+        <v>355200</v>
       </c>
       <c r="C17" s="1">
-        <v>345600</v>
+        <v>355200</v>
       </c>
       <c r="D17" s="1">
-        <v>345600</v>
+        <v>355200</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -14894,7 +14164,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>41472</v>
+        <v>42624</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -14905,13 +14175,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>432000</v>
+        <v>444000</v>
       </c>
       <c r="C18" s="1">
-        <v>432000</v>
+        <v>444000</v>
       </c>
       <c r="D18" s="1">
-        <v>432000</v>
+        <v>444000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -14926,7 +14196,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>51840</v>
+        <v>53280</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -14937,13 +14207,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>518400</v>
+        <v>532800</v>
       </c>
       <c r="C19" s="1">
-        <v>518400</v>
+        <v>532800</v>
       </c>
       <c r="D19" s="1">
-        <v>518400</v>
+        <v>532800</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -14958,7 +14228,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>62208</v>
+        <v>63936</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -14969,13 +14239,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>604800</v>
+        <v>621600</v>
       </c>
       <c r="C20" s="1">
-        <v>604800</v>
+        <v>621600</v>
       </c>
       <c r="D20" s="1">
-        <v>604800</v>
+        <v>621600</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -14990,7 +14260,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>82944</v>
+        <v>85248</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -15001,13 +14271,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>691200</v>
+        <v>710400</v>
       </c>
       <c r="C21" s="1">
-        <v>691200</v>
+        <v>710400</v>
       </c>
       <c r="D21" s="1">
-        <v>691200</v>
+        <v>710400</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -15022,7 +14292,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>103680</v>
+        <v>106560</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -15033,13 +14303,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1296000</v>
+        <v>1332000</v>
       </c>
       <c r="C22" s="1">
-        <v>1296000</v>
+        <v>1332000</v>
       </c>
       <c r="D22" s="1">
-        <v>1296000</v>
+        <v>1332000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -15054,7 +14324,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>124416</v>
+        <v>127872</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -15077,7 +14347,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15154,13 +14424,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="C3" s="1">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="D3" s="1">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -15175,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -15186,13 +14456,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1480</v>
+        <v>1380</v>
       </c>
       <c r="C4" s="1">
-        <v>1480</v>
+        <v>1380</v>
       </c>
       <c r="D4" s="1">
-        <v>1480</v>
+        <v>1380</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -15207,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -15218,13 +14488,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4440</v>
+        <v>4140</v>
       </c>
       <c r="C5" s="1">
-        <v>4440</v>
+        <v>4140</v>
       </c>
       <c r="D5" s="1">
-        <v>4440</v>
+        <v>4140</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -15239,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -15250,13 +14520,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8880</v>
+        <v>8280</v>
       </c>
       <c r="C6" s="1">
-        <v>8880</v>
+        <v>8280</v>
       </c>
       <c r="D6" s="1">
-        <v>8880</v>
+        <v>8280</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -15271,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -15282,13 +14552,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>26640</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>26640</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>26640</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -15303,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -15314,13 +14584,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>53280</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>53280</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="D8" s="1">
-        <v>53280</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -15335,7 +14605,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1332</v>
+        <v>1242</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -15346,13 +14616,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>79920</v>
+        <v>74520</v>
       </c>
       <c r="C9" s="1">
-        <v>79920</v>
+        <v>74520</v>
       </c>
       <c r="D9" s="1">
-        <v>79920</v>
+        <v>74520</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -15367,7 +14637,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1998</v>
+        <v>1863</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -15378,13 +14648,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>106560</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="C10" s="1">
-        <v>106560</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="D10" s="1">
-        <v>106560</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -15399,7 +14669,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2664</v>
+        <v>2484</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -15410,13 +14680,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>133200</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>133200</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>133200</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -15431,7 +14701,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3996</v>
+        <v>3726</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -15442,13 +14712,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>159840</v>
+        <v>149040</v>
       </c>
       <c r="C12" s="1">
-        <v>159840</v>
+        <v>149040</v>
       </c>
       <c r="D12" s="1">
-        <v>159840</v>
+        <v>149040</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -15463,7 +14733,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>5328</v>
+        <v>4968</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -15474,13 +14744,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>186480</v>
+        <v>173880</v>
       </c>
       <c r="C13" s="1">
-        <v>186480</v>
+        <v>173880</v>
       </c>
       <c r="D13" s="1">
-        <v>186480</v>
+        <v>173880</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -15495,7 +14765,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>10656</v>
+        <v>9936</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -15506,13 +14776,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>213120</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>213120</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>213120</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -15527,7 +14797,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>15984</v>
+        <v>14904</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -15538,13 +14808,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>239760</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>239760</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>239760</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -15559,7 +14829,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>21312</v>
+        <v>19872</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -15570,13 +14840,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>266400</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>266400</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>266400</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -15591,7 +14861,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>31968</v>
+        <v>29808</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -15602,13 +14872,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>355200</v>
+        <v>331200</v>
       </c>
       <c r="C17" s="1">
-        <v>355200</v>
+        <v>331200</v>
       </c>
       <c r="D17" s="1">
-        <v>355200</v>
+        <v>331200</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -15623,7 +14893,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>42624</v>
+        <v>39744</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -15634,13 +14904,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>444000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="C18" s="1">
-        <v>444000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="D18" s="1">
-        <v>444000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -15655,7 +14925,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>53280</v>
+        <v>49680</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -15666,13 +14936,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>532800</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="C19" s="1">
-        <v>532800</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>532800</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -15687,7 +14957,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>63936</v>
+        <v>59616</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -15698,13 +14968,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>621600</v>
+        <v>579600</v>
       </c>
       <c r="C20" s="1">
-        <v>621600</v>
+        <v>579600</v>
       </c>
       <c r="D20" s="1">
-        <v>621600</v>
+        <v>579600</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -15719,7 +14989,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>85248</v>
+        <v>79488</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -15730,13 +15000,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>710400</v>
+        <v>662400</v>
       </c>
       <c r="C21" s="1">
-        <v>710400</v>
+        <v>662400</v>
       </c>
       <c r="D21" s="1">
-        <v>710400</v>
+        <v>662400</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -15751,7 +15021,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>106560</v>
+        <v>99360</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -15762,13 +15032,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1332000</v>
+        <v>1242000</v>
       </c>
       <c r="C22" s="1">
-        <v>1332000</v>
+        <v>1242000</v>
       </c>
       <c r="D22" s="1">
-        <v>1332000</v>
+        <v>1242000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -15783,7 +15053,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>127872</v>
+        <v>119232</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>

--- a/datas/shared/BuildingLevelUp.xlsx
+++ b/datas/shared/BuildingLevelUp.xlsx
@@ -4,124 +4,124 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="1300" windowWidth="27180" windowHeight="17220" tabRatio="883" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
-    <sheet name="wall" sheetId="18" r:id="rId1"/>
-    <sheet name="tower" sheetId="20" r:id="rId2"/>
-    <sheet name="keep" sheetId="17" r:id="rId3"/>
-    <sheet name="watchTower" sheetId="45" r:id="rId4"/>
-    <sheet name="warehouse" sheetId="19" r:id="rId5"/>
-    <sheet name="dragonEyrie" sheetId="46" r:id="rId6"/>
-    <sheet name="barracks" sheetId="32" r:id="rId7"/>
-    <sheet name="hospital" sheetId="38" r:id="rId8"/>
-    <sheet name="academy" sheetId="37" r:id="rId9"/>
-    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
-    <sheet name="blackSmith" sheetId="34" r:id="rId11"/>
-    <sheet name="foundry" sheetId="29" r:id="rId12"/>
-    <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
-    <sheet name="lumbermill" sheetId="27" r:id="rId14"/>
-    <sheet name="mill" sheetId="30" r:id="rId15"/>
-    <sheet name="townHall" sheetId="31" r:id="rId16"/>
-    <sheet name="toolShop" sheetId="36" r:id="rId17"/>
-    <sheet name="tradeGuild" sheetId="39" r:id="rId18"/>
-    <sheet name="workshop" sheetId="44" r:id="rId19"/>
-    <sheet name="trainingGround" sheetId="41" r:id="rId20"/>
-    <sheet name="hunterHall" sheetId="42" r:id="rId21"/>
-    <sheet name="stable" sheetId="43" r:id="rId22"/>
+    <sheet name="keep" sheetId="17" r:id="rId1"/>
+    <sheet name="watchTower" sheetId="45" r:id="rId2"/>
+    <sheet name="warehouse" sheetId="19" r:id="rId3"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId4"/>
+    <sheet name="barracks" sheetId="32" r:id="rId5"/>
+    <sheet name="hospital" sheetId="38" r:id="rId6"/>
+    <sheet name="academy" sheetId="37" r:id="rId7"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId8"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
+    <sheet name="foundry" sheetId="29" r:id="rId10"/>
+    <sheet name="stoneMason" sheetId="28" r:id="rId11"/>
+    <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
+    <sheet name="mill" sheetId="30" r:id="rId13"/>
+    <sheet name="townHall" sheetId="31" r:id="rId14"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId15"/>
+    <sheet name="tradeGuild" sheetId="39" r:id="rId16"/>
+    <sheet name="workshop" sheetId="44" r:id="rId17"/>
+    <sheet name="trainingGround" sheetId="41" r:id="rId18"/>
+    <sheet name="hunterHall" sheetId="42" r:id="rId19"/>
+    <sheet name="stable" sheetId="43" r:id="rId20"/>
+    <sheet name="wall" sheetId="18" r:id="rId21"/>
+    <sheet name="tower" sheetId="20" r:id="rId22"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -319,7 +319,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="222">
+  <cellStyleXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -546,6 +546,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -559,7 +565,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="222">
+  <cellStyles count="228">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -673,6 +679,9 @@
     <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -779,6 +788,9 @@
     <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1231,7 +1243,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:J41"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7916,7 +7928,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10589,7 +10601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:J41"/>
     </sheetView>
   </sheetViews>
@@ -17275,7 +17287,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -18609,18 +18621,19 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="10" width="20.6640625" style="1"/>
+    <col min="12" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -18652,7 +18665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -18683,8 +18696,9 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -18715,8 +18729,9 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -18747,8 +18762,9 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -18779,8 +18795,9 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -18811,8 +18828,9 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -18843,8 +18861,9 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -18875,8 +18894,9 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -18907,8 +18927,9 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -18939,8 +18960,9 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -18971,8 +18993,9 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -19003,8 +19026,9 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -19035,8 +19059,9 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -19067,8 +19092,9 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -19099,8 +19125,9 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -19131,8 +19158,9 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -19163,8 +19191,9 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -19195,8 +19224,9 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -19227,8 +19257,9 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -19259,8 +19290,9 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -19291,8 +19323,9 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -19323,8 +19356,9 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -19355,8 +19389,9 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -19387,8 +19422,9 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -19419,8 +19455,9 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="20" customHeight="1">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -19451,8 +19488,9 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="20" customHeight="1">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -19483,8 +19521,9 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="20" customHeight="1">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -19515,8 +19554,9 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="20" customHeight="1">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -19547,8 +19587,9 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="20" customHeight="1">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -19579,8 +19620,9 @@
       <c r="J30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="20" customHeight="1">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -19611,8 +19653,9 @@
       <c r="J31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -19643,8 +19686,9 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="20" customHeight="1">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -19675,8 +19719,9 @@
       <c r="J33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="20" customHeight="1">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -19707,8 +19752,9 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="20" customHeight="1">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -19739,8 +19785,9 @@
       <c r="J35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="20" customHeight="1">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -19771,8 +19818,9 @@
       <c r="J36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="20" customHeight="1">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -19803,8 +19851,9 @@
       <c r="J37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="20" customHeight="1">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -19835,8 +19884,9 @@
       <c r="J38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="20" customHeight="1">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -19867,8 +19917,9 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="20" customHeight="1">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -19899,8 +19950,9 @@
       <c r="J40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="20" customHeight="1">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -19931,6 +19983,7 @@
       <c r="J41" s="1">
         <v>0</v>
       </c>
+      <c r="K41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -19949,7 +20002,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -21286,7 +21339,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -22623,7 +22676,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -23960,7 +24013,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection sqref="A1:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -25297,7 +25350,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection sqref="A1:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/BuildingLevelUp.xlsx
+++ b/datas/shared/BuildingLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="0" windowWidth="35580" windowHeight="20380" tabRatio="883" activeTab="21"/>
+    <workbookView xWindow="-340" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -332,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="544">
+  <cellStyleXfs count="548">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -347,6 +347,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -897,7 +901,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="544">
+  <cellStyles count="548">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1172,6 +1176,8 @@
     <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1439,6 +1445,8 @@
     <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1890,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1954,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1983,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2012,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2041,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2070,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -2099,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -2128,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>3600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -2157,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>7200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -2186,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>14400</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -2215,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>21600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -2244,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>28800</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2273,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>36000</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2302,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>43200</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2331,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>50400</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2360,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>57600</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -2389,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>64800</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -2418,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <v>72000</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -2447,7 +2455,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="1">
-        <v>79200</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -2476,7 +2484,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="1">
-        <v>86400</v>
+        <v>79200</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -2505,7 +2513,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="1">
-        <v>93600</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -2534,7 +2542,7 @@
         <v>46</v>
       </c>
       <c r="I22" s="1">
-        <v>100800</v>
+        <v>93600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -2563,7 +2571,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="1">
-        <v>108000</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -2592,7 +2600,7 @@
         <v>88</v>
       </c>
       <c r="I24" s="1">
-        <v>115200</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -2621,7 +2629,7 @@
         <v>102</v>
       </c>
       <c r="I25" s="1">
-        <v>129600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -2650,7 +2658,7 @@
         <v>135</v>
       </c>
       <c r="I26" s="1">
-        <v>144000</v>
+        <v>129600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -2679,7 +2687,7 @@
         <v>189</v>
       </c>
       <c r="I27" s="1">
-        <v>158400</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -2708,7 +2716,7 @@
         <v>235</v>
       </c>
       <c r="I28" s="1">
-        <v>172800</v>
+        <v>158400</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -2737,7 +2745,7 @@
         <v>288</v>
       </c>
       <c r="I29" s="1">
-        <v>187200</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -2766,7 +2774,7 @@
         <v>320</v>
       </c>
       <c r="I30" s="1">
-        <v>201600</v>
+        <v>187200</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -2795,7 +2803,7 @@
         <v>390</v>
       </c>
       <c r="I31" s="1">
-        <v>216000</v>
+        <v>201600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -2824,7 +2832,7 @@
         <v>494</v>
       </c>
       <c r="I32" s="1">
-        <v>230400</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -2853,7 +2861,7 @@
         <v>580</v>
       </c>
       <c r="I33" s="1">
-        <v>244800</v>
+        <v>230400</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -2882,7 +2890,7 @@
         <v>675</v>
       </c>
       <c r="I34" s="1">
-        <v>259200</v>
+        <v>244800</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -2911,7 +2919,7 @@
         <v>781</v>
       </c>
       <c r="I35" s="1">
-        <v>273600</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -2940,7 +2948,7 @@
         <v>897</v>
       </c>
       <c r="I36" s="1">
-        <v>288000</v>
+        <v>273600</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -2969,7 +2977,7 @@
         <v>1024</v>
       </c>
       <c r="I37" s="1">
-        <v>302400</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -2998,7 +3006,7 @@
         <v>1162</v>
       </c>
       <c r="I38" s="1">
-        <v>316800</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -3027,7 +3035,7 @@
         <v>1313</v>
       </c>
       <c r="I39" s="1">
-        <v>331200</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -3056,7 +3064,7 @@
         <v>1476</v>
       </c>
       <c r="I40" s="1">
-        <v>345600</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -18886,7 +18894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/BuildingLevelUp.xlsx
+++ b/datas/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="883"/>
+    <workbookView xWindow="2440" yWindow="0" windowWidth="30200" windowHeight="17700" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -332,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="548">
+  <cellStyleXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -347,6 +347,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -901,7 +909,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="548">
+  <cellStyles count="556">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1178,6 +1186,10 @@
     <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1447,6 +1459,10 @@
     <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1899,7 +1915,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1962,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1991,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2020,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2049,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2078,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">

--- a/datas/shared/BuildingLevelUp.xlsx
+++ b/datas/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="0" windowWidth="30200" windowHeight="17700" tabRatio="883"/>
+    <workbookView xWindow="2440" yWindow="0" windowWidth="30200" windowHeight="17700" tabRatio="883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -332,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="556">
+  <cellStyleXfs count="564">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -347,6 +347,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -909,7 +917,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="556">
+  <cellStyles count="564">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1190,6 +1198,10 @@
     <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1463,6 +1475,10 @@
     <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1914,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -21336,19 +21352,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="9" width="20.6640625" style="1"/>
-    <col min="11" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -21377,7 +21392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -21403,11 +21418,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>48</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -21433,11 +21447,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>96</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -21463,11 +21476,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>240</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -21493,11 +21505,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>480</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -21523,11 +21534,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>960</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -21553,11 +21563,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1920</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -21583,11 +21592,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>2880</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -21613,11 +21621,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>5760</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -21643,11 +21650,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>11520</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -21673,11 +21679,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>17280</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -21703,11 +21708,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>23040</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
+        <v>17280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -21733,11 +21737,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>28800</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
+        <v>23040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -21763,11 +21766,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>34560</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -21793,11 +21795,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>40320</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
+        <v>34560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -21823,11 +21824,10 @@
         <v>4</v>
       </c>
       <c r="I16" s="1">
-        <v>46080</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
+        <v>40320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -21853,11 +21853,10 @@
         <v>8</v>
       </c>
       <c r="I17" s="1">
-        <v>51840</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -21883,11 +21882,10 @@
         <v>13</v>
       </c>
       <c r="I18" s="1">
-        <v>57600</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
+        <v>51840</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -21913,11 +21911,10 @@
         <v>21</v>
       </c>
       <c r="I19" s="1">
-        <v>63360</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -21943,11 +21940,10 @@
         <v>32</v>
       </c>
       <c r="I20" s="1">
-        <v>69120</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
+        <v>63360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -21973,11 +21969,10 @@
         <v>47</v>
       </c>
       <c r="I21" s="1">
-        <v>74880</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
+        <v>69120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -22003,11 +21998,10 @@
         <v>65</v>
       </c>
       <c r="I22" s="1">
-        <v>80640</v>
-      </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1">
+        <v>74880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -22033,11 +22027,10 @@
         <v>88</v>
       </c>
       <c r="I23" s="1">
-        <v>86400</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1">
+        <v>80640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -22063,11 +22056,10 @@
         <v>100</v>
       </c>
       <c r="I24" s="1">
-        <v>92160</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -22093,11 +22085,10 @@
         <v>150</v>
       </c>
       <c r="I25" s="1">
-        <v>103680</v>
-      </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="20" customHeight="1">
+        <v>92160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -22123,11 +22114,10 @@
         <v>189</v>
       </c>
       <c r="I26" s="1">
-        <v>115200</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="20" customHeight="1">
+        <v>103680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -22153,11 +22143,10 @@
         <v>235</v>
       </c>
       <c r="I27" s="1">
-        <v>126720</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -22183,11 +22172,10 @@
         <v>260</v>
       </c>
       <c r="I28" s="1">
-        <v>138240</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" ht="20" customHeight="1">
+        <v>126720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -22213,11 +22201,10 @@
         <v>320</v>
       </c>
       <c r="I29" s="1">
-        <v>149760</v>
-      </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="20" customHeight="1">
+        <v>138240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -22243,11 +22230,10 @@
         <v>417</v>
       </c>
       <c r="I30" s="1">
-        <v>161280</v>
-      </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" ht="20" customHeight="1">
+        <v>149760</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -22273,11 +22259,10 @@
         <v>494</v>
       </c>
       <c r="I31" s="1">
-        <v>172800</v>
-      </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1">
+        <v>161280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -22303,11 +22288,10 @@
         <v>580</v>
       </c>
       <c r="I32" s="1">
-        <v>184320</v>
-      </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="20" customHeight="1">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -22333,11 +22317,10 @@
         <v>660</v>
       </c>
       <c r="I33" s="1">
-        <v>195840</v>
-      </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="20" customHeight="1">
+        <v>184320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -22363,11 +22346,10 @@
         <v>760</v>
       </c>
       <c r="I34" s="1">
-        <v>207360</v>
-      </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="20" customHeight="1">
+        <v>195840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -22393,11 +22375,10 @@
         <v>900</v>
       </c>
       <c r="I35" s="1">
-        <v>218880</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="20" customHeight="1">
+        <v>207360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -22423,11 +22404,10 @@
         <v>1024</v>
       </c>
       <c r="I36" s="1">
-        <v>230400</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="20" customHeight="1">
+        <v>218880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -22453,11 +22433,10 @@
         <v>1160</v>
       </c>
       <c r="I37" s="1">
-        <v>241920</v>
-      </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="20" customHeight="1">
+        <v>230400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -22483,11 +22462,10 @@
         <v>1320</v>
       </c>
       <c r="I38" s="1">
-        <v>253440</v>
-      </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="20" customHeight="1">
+        <v>244800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -22513,11 +22491,10 @@
         <v>1480</v>
       </c>
       <c r="I39" s="1">
-        <v>264960</v>
-      </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" ht="20" customHeight="1">
+        <v>259200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -22543,11 +22520,10 @@
         <v>1320</v>
       </c>
       <c r="I40" s="1">
-        <v>276480</v>
-      </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="20" customHeight="1">
+        <v>273600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -22575,7 +22551,6 @@
       <c r="I41" s="1">
         <v>288000</v>
       </c>
-      <c r="J41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/BuildingLevelUp.xlsx
+++ b/datas/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="0" windowWidth="30200" windowHeight="17700" tabRatio="883" activeTab="3"/>
+    <workbookView xWindow="1500" yWindow="960" windowWidth="30200" windowHeight="17700" tabRatio="883" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -3145,7 +3145,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -21354,7 +21354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J42"/>
     </sheetView>
   </sheetViews>
@@ -24996,8 +24996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -25060,7 +25060,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -26211,7 +26211,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -26274,7 +26274,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>160</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -26303,7 +26303,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -26332,7 +26332,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -26361,7 +26361,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>440</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -27425,7 +27425,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -27488,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">

--- a/datas/shared/BuildingLevelUp.xlsx
+++ b/datas/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="960" windowWidth="30200" windowHeight="17700" tabRatio="883" activeTab="6"/>
+    <workbookView xWindow="1500" yWindow="960" windowWidth="30200" windowHeight="17700" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -1930,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>480</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -24996,7 +24996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/BuildingLevelUp.xlsx
+++ b/datas/shared/BuildingLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="0" windowWidth="29780" windowHeight="21140" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="34920" windowHeight="21140" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -327,7 +327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="802">
+  <cellStyleXfs count="844">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -342,6 +342,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1150,7 +1192,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="802">
+  <cellStyles count="844">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1554,6 +1596,27 @@
     <cellStyle name="超链接" xfId="796" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="798" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="842" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1950,6 +2013,27 @@
     <cellStyle name="访问过的超链接" xfId="797" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="799" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="843" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2401,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2755,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4800</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2784,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>6000</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2813,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>7200</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2842,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>14400</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2871,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>21600</v>
+        <v>31320</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -2900,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>28800</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -2929,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>36000</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -2958,7 +3042,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="1">
-        <v>43200</v>
+        <v>69120</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -2987,7 +3071,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1">
-        <v>50400</v>
+        <v>83160</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -3016,7 +3100,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="1">
-        <v>57600</v>
+        <v>97920</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -3045,7 +3129,7 @@
         <v>48</v>
       </c>
       <c r="I22" s="1">
-        <v>64800</v>
+        <v>113400</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -3074,7 +3158,7 @@
         <v>64</v>
       </c>
       <c r="I23" s="1">
-        <v>72000</v>
+        <v>129600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -3103,7 +3187,7 @@
         <v>80</v>
       </c>
       <c r="I24" s="1">
-        <v>79200</v>
+        <v>144144</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -3132,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="I25" s="1">
-        <v>86400</v>
+        <v>158976</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -3161,7 +3245,7 @@
         <v>140</v>
       </c>
       <c r="I26" s="1">
-        <v>93600</v>
+        <v>173160</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -3190,7 +3274,7 @@
         <v>160</v>
       </c>
       <c r="I27" s="1">
-        <v>100800</v>
+        <v>187488</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -3219,7 +3303,7 @@
         <v>180</v>
       </c>
       <c r="I28" s="1">
-        <v>108000</v>
+        <v>201960</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -3248,7 +3332,7 @@
         <v>210</v>
       </c>
       <c r="I29" s="1">
-        <v>115200</v>
+        <v>216576</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -3277,7 +3361,7 @@
         <v>320</v>
       </c>
       <c r="I30" s="1">
-        <v>129600</v>
+        <v>244944</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -3306,7 +3390,7 @@
         <v>390</v>
       </c>
       <c r="I31" s="1">
-        <v>144000</v>
+        <v>273600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -3335,7 +3419,7 @@
         <v>450</v>
       </c>
       <c r="I32" s="1">
-        <v>158400</v>
+        <v>302544</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -3364,7 +3448,7 @@
         <v>500</v>
       </c>
       <c r="I33" s="1">
-        <v>172800</v>
+        <v>331776</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -3393,7 +3477,7 @@
         <v>680</v>
       </c>
       <c r="I34" s="1">
-        <v>187200</v>
+        <v>361296</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -3422,7 +3506,7 @@
         <v>780</v>
       </c>
       <c r="I35" s="1">
-        <v>201600</v>
+        <v>391104</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -3451,7 +3535,7 @@
         <v>900</v>
       </c>
       <c r="I36" s="1">
-        <v>216000</v>
+        <v>421200</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -3480,7 +3564,7 @@
         <v>1020</v>
       </c>
       <c r="I37" s="1">
-        <v>230400</v>
+        <v>451584</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -3509,7 +3593,7 @@
         <v>1160</v>
       </c>
       <c r="I38" s="1">
-        <v>244800</v>
+        <v>482256</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -3538,7 +3622,7 @@
         <v>1280</v>
       </c>
       <c r="I39" s="1">
-        <v>259200</v>
+        <v>513216</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -3567,7 +3651,7 @@
         <v>1480</v>
       </c>
       <c r="I40" s="1">
-        <v>273600</v>
+        <v>544464</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -3596,7 +3680,7 @@
         <v>1650</v>
       </c>
       <c r="I41" s="1">
-        <v>288000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1">
@@ -3625,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3689,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>280</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -3718,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>360</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -3747,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>440</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3776,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>520</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3805,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>600</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3834,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3979,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2996</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -4008,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>3620</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4037,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4244</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4066,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>7988</v>
+        <v>10983</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4095,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>11732</v>
+        <v>16786</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -4124,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>15476</v>
+        <v>22964</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -4153,7 +4237,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>19220</v>
+        <v>29516</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -4182,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>22964</v>
+        <v>36442</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -4211,7 +4295,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>26708</v>
+        <v>43743</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -4240,7 +4324,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>30452</v>
+        <v>51418</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -4269,7 +4353,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>34196</v>
+        <v>59468</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -4298,7 +4382,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>37940</v>
+        <v>67892</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -4327,7 +4411,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>41684</v>
+        <v>75455</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -4356,7 +4440,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>45428</v>
+        <v>83168</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -4385,7 +4469,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>49172</v>
+        <v>90543</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -4414,7 +4498,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>52916</v>
+        <v>97994</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -4443,7 +4527,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>56660</v>
+        <v>105519</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -4472,7 +4556,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>60404</v>
+        <v>113120</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -4501,7 +4585,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>67892</v>
+        <v>127871</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -4530,7 +4614,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>75380</v>
+        <v>142772</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -4559,7 +4643,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>82868</v>
+        <v>157823</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -4588,7 +4672,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>90356</v>
+        <v>173024</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -4617,7 +4701,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>97844</v>
+        <v>188374</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -4646,7 +4730,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>105332</v>
+        <v>203874</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -4675,7 +4759,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>112820</v>
+        <v>219524</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -4704,7 +4788,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>120308</v>
+        <v>235324</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -4733,7 +4817,7 @@
         <v>548</v>
       </c>
       <c r="I38" s="1">
-        <v>127796</v>
+        <v>251273</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -4762,7 +4846,7 @@
         <v>612</v>
       </c>
       <c r="I39" s="1">
-        <v>135284</v>
+        <v>267372</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -4791,7 +4875,7 @@
         <v>676</v>
       </c>
       <c r="I40" s="1">
-        <v>142772</v>
+        <v>283621</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -4820,7 +4904,7 @@
         <v>740</v>
       </c>
       <c r="I41" s="1">
-        <v>150260</v>
+        <v>300020</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -4857,7 +4941,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I45"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4920,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>400</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4949,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>500</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4978,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>600</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -5007,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>800</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -5036,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1000</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -5065,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -5094,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1400</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -5210,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3592</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5239,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4240</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5268,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4888</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -5297,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8776</v>
+        <v>11886</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -5326,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>12664</v>
+        <v>17913</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -5355,7 +5439,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>16552</v>
+        <v>24328</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -5384,7 +5468,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>20440</v>
+        <v>31132</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -5413,7 +5497,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>24328</v>
+        <v>38325</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -5442,7 +5526,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>28216</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -5471,7 +5555,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>32104</v>
+        <v>53877</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -5500,7 +5584,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>35992</v>
+        <v>62236</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -5529,7 +5613,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>39880</v>
+        <v>70984</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -5558,7 +5642,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>43768</v>
+        <v>78838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -5587,7 +5671,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>47656</v>
+        <v>86847</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -5616,7 +5700,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>51544</v>
+        <v>94506</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -5645,7 +5729,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>55432</v>
+        <v>102244</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -5674,7 +5758,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>59320</v>
+        <v>110058</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -5703,7 +5787,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>63208</v>
+        <v>117951</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -5732,7 +5816,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>70984</v>
+        <v>133270</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -5761,7 +5845,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>78760</v>
+        <v>148744</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -5790,7 +5874,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>86536</v>
+        <v>164374</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -5819,7 +5903,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>94312</v>
+        <v>180159</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -5848,7 +5932,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>102088</v>
+        <v>196100</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -5877,7 +5961,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>109864</v>
+        <v>212196</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -5906,7 +5990,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>117640</v>
+        <v>228448</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -5935,7 +6019,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>125416</v>
+        <v>244855</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -5964,7 +6048,7 @@
         <v>548</v>
       </c>
       <c r="I38" s="1">
-        <v>133192</v>
+        <v>261418</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -5993,7 +6077,7 @@
         <v>612</v>
       </c>
       <c r="I39" s="1">
-        <v>140968</v>
+        <v>278137</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -6022,7 +6106,7 @@
         <v>676</v>
       </c>
       <c r="I40" s="1">
-        <v>148744</v>
+        <v>295011</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -6051,7 +6135,7 @@
         <v>740</v>
       </c>
       <c r="I41" s="1">
-        <v>156520</v>
+        <v>312040</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -6076,7 +6160,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I43"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6139,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1200</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6168,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1400</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6197,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1600</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6226,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1800</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6255,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>2000</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -6284,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2200</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -6313,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>2400</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -6429,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4688</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -6458,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>5360</v>
+        <v>6368</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -6487,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>6032</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -6516,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>10064</v>
+        <v>13290</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -6545,7 +6629,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>14096</v>
+        <v>19539</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -6574,7 +6658,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>18128</v>
+        <v>26192</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -6603,7 +6687,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>22160</v>
+        <v>33248</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -6632,7 +6716,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>26192</v>
+        <v>40707</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -6661,7 +6745,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>30224</v>
+        <v>48570</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -6690,7 +6774,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>34256</v>
+        <v>56835</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -6719,7 +6803,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>38288</v>
+        <v>65504</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -6748,7 +6832,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>42320</v>
+        <v>74576</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -6777,7 +6861,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>46352</v>
+        <v>82721</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -6806,7 +6890,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>50384</v>
+        <v>91027</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -6835,7 +6919,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>54416</v>
+        <v>98970</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -6864,7 +6948,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>58448</v>
+        <v>106993</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -6893,7 +6977,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>62480</v>
+        <v>115098</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -6922,7 +7006,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>66512</v>
+        <v>123283</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -6951,7 +7035,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>74576</v>
+        <v>139169</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -6980,7 +7064,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>82640</v>
+        <v>155216</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -7009,7 +7093,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>90704</v>
+        <v>171425</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -7038,7 +7122,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>98768</v>
+        <v>187795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -7067,7 +7151,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>106832</v>
+        <v>204326</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -7096,7 +7180,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>114896</v>
+        <v>221018</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -7125,7 +7209,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>122960</v>
+        <v>237872</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -7154,7 +7238,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>131024</v>
+        <v>254887</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -7183,7 +7267,7 @@
         <v>548</v>
       </c>
       <c r="I38" s="1">
-        <v>139088</v>
+        <v>272063</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -7212,7 +7296,7 @@
         <v>612</v>
       </c>
       <c r="I39" s="1">
-        <v>147152</v>
+        <v>289401</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -7241,7 +7325,7 @@
         <v>676</v>
       </c>
       <c r="I40" s="1">
-        <v>155216</v>
+        <v>306900</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -7270,7 +7354,7 @@
         <v>740</v>
       </c>
       <c r="I41" s="1">
-        <v>163280</v>
+        <v>324560</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -7329,8 +7413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I44"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7393,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>600</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -7422,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>800</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -7451,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1000</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -7480,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1200</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -7509,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1400</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -7683,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3900</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -7712,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -7741,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5100</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -7770,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8700</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -7799,7 +7883,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>12300</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -7828,7 +7912,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>15900</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -7857,7 +7941,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>19500</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -7886,7 +7970,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>23100</v>
+        <v>36060</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -7915,7 +7999,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>26700</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -7944,7 +8028,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>30300</v>
+        <v>50460</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -7973,7 +8057,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>33900</v>
+        <v>58200</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -8002,7 +8086,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>37500</v>
+        <v>66300</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -8031,7 +8115,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>41100</v>
+        <v>73572</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -8060,7 +8144,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>44700</v>
+        <v>80988</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -8089,7 +8173,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>48300</v>
+        <v>88080</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -8118,7 +8202,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>51900</v>
+        <v>95244</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -8147,7 +8231,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>55500</v>
+        <v>102480</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -8176,7 +8260,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>59100</v>
+        <v>109788</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -8205,7 +8289,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>66300</v>
+        <v>123972</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -8234,7 +8318,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>73500</v>
+        <v>138300</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -8263,7 +8347,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>80700</v>
+        <v>152772</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -8292,7 +8376,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>87900</v>
+        <v>167388</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -8321,7 +8405,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>95100</v>
+        <v>182148</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -8350,7 +8434,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>102300</v>
+        <v>197052</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -8379,7 +8463,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>109500</v>
+        <v>212100</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -8408,7 +8492,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>116700</v>
+        <v>227292</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -8437,7 +8521,7 @@
         <v>548</v>
       </c>
       <c r="I38" s="1">
-        <v>123900</v>
+        <v>242628</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -8466,7 +8550,7 @@
         <v>612</v>
       </c>
       <c r="I39" s="1">
-        <v>131100</v>
+        <v>258108</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -8495,7 +8579,7 @@
         <v>676</v>
       </c>
       <c r="I40" s="1">
-        <v>138300</v>
+        <v>273732</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -8524,7 +8608,7 @@
         <v>740</v>
       </c>
       <c r="I41" s="1">
-        <v>145500</v>
+        <v>289500</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -8559,7 +8643,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H44"/>
+      <selection activeCell="I2" sqref="I2:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8622,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -8651,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1200</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -8680,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1400</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -8709,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1600</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -8738,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1800</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -8767,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -8912,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4112</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -8941,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4640</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -8970,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5168</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -8999,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8336</v>
+        <v>10870</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -9028,7 +9112,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>11504</v>
+        <v>15781</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -9057,7 +9141,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>14672</v>
+        <v>21008</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -9086,7 +9170,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>17840</v>
+        <v>26552</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -9115,7 +9199,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>21008</v>
+        <v>32413</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -9144,7 +9228,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>24176</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -9173,7 +9257,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>27344</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -9202,7 +9286,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>30512</v>
+        <v>51896</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -9231,7 +9315,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>33680</v>
+        <v>59024</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -9260,7 +9344,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>36848</v>
+        <v>65423</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -9289,7 +9373,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>40016</v>
+        <v>71949</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -9318,7 +9402,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="1">
-        <v>43184</v>
+        <v>78190</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -9347,7 +9431,7 @@
         <v>68</v>
       </c>
       <c r="I27" s="1">
-        <v>46352</v>
+        <v>84495</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -9376,7 +9460,7 @@
         <v>76</v>
       </c>
       <c r="I28" s="1">
-        <v>49520</v>
+        <v>90862</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -9405,7 +9489,7 @@
         <v>84</v>
       </c>
       <c r="I29" s="1">
-        <v>52688</v>
+        <v>97293</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -9434,7 +9518,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="1">
-        <v>59024</v>
+        <v>109775</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -9463,7 +9547,7 @@
         <v>116</v>
       </c>
       <c r="I31" s="1">
-        <v>65360</v>
+        <v>122384</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -9492,7 +9576,7 @@
         <v>132</v>
       </c>
       <c r="I32" s="1">
-        <v>71696</v>
+        <v>135119</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -9521,7 +9605,7 @@
         <v>148</v>
       </c>
       <c r="I33" s="1">
-        <v>78032</v>
+        <v>147981</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -9550,7 +9634,7 @@
         <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>84368</v>
+        <v>160970</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -9579,7 +9663,7 @@
         <v>212</v>
       </c>
       <c r="I35" s="1">
-        <v>90704</v>
+        <v>174086</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -9608,7 +9692,7 @@
         <v>244</v>
       </c>
       <c r="I36" s="1">
-        <v>97040</v>
+        <v>187328</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -9637,7 +9721,7 @@
         <v>276</v>
       </c>
       <c r="I37" s="1">
-        <v>103376</v>
+        <v>200697</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -9666,7 +9750,7 @@
         <v>340</v>
       </c>
       <c r="I38" s="1">
-        <v>109712</v>
+        <v>214193</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -9695,7 +9779,7 @@
         <v>404</v>
       </c>
       <c r="I39" s="1">
-        <v>116048</v>
+        <v>227815</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -9724,7 +9808,7 @@
         <v>468</v>
       </c>
       <c r="I40" s="1">
-        <v>122384</v>
+        <v>241564</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -9753,7 +9837,7 @@
         <v>532</v>
       </c>
       <c r="I41" s="1">
-        <v>128720</v>
+        <v>255440</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -9781,8 +9865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H42"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9845,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -9874,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1200</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -9903,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1400</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -9932,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1600</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -9961,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1800</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -9990,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -10135,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4208</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -10164,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4760</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -10193,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5312</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -10222,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8624</v>
+        <v>11274</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -10251,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>11936</v>
+        <v>16407</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -10280,7 +10364,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>15248</v>
+        <v>21872</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -10309,7 +10393,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>18560</v>
+        <v>27668</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -10338,7 +10422,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>21872</v>
+        <v>33795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -10367,7 +10451,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>25184</v>
+        <v>40254</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -10396,7 +10480,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>28496</v>
+        <v>47043</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -10425,7 +10509,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>31808</v>
+        <v>54164</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -10454,7 +10538,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>35120</v>
+        <v>61616</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -10483,7 +10567,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>38432</v>
+        <v>68306</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -10512,7 +10596,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>41744</v>
+        <v>75129</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -10541,7 +10625,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="1">
-        <v>45056</v>
+        <v>81654</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -10570,7 +10654,7 @@
         <v>68</v>
       </c>
       <c r="I27" s="1">
-        <v>48368</v>
+        <v>88244</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -10599,7 +10683,7 @@
         <v>76</v>
       </c>
       <c r="I28" s="1">
-        <v>51680</v>
+        <v>94902</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -10628,7 +10712,7 @@
         <v>84</v>
       </c>
       <c r="I29" s="1">
-        <v>54992</v>
+        <v>101625</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -10657,7 +10741,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="1">
-        <v>61616</v>
+        <v>114674</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -10686,7 +10770,7 @@
         <v>116</v>
       </c>
       <c r="I31" s="1">
-        <v>68240</v>
+        <v>127856</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -10715,7 +10799,7 @@
         <v>132</v>
       </c>
       <c r="I32" s="1">
-        <v>74864</v>
+        <v>141170</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -10744,7 +10828,7 @@
         <v>148</v>
       </c>
       <c r="I33" s="1">
-        <v>81488</v>
+        <v>154617</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -10773,7 +10857,7 @@
         <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>88112</v>
+        <v>168196</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -10802,7 +10886,7 @@
         <v>212</v>
       </c>
       <c r="I35" s="1">
-        <v>94736</v>
+        <v>181908</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -10831,7 +10915,7 @@
         <v>244</v>
       </c>
       <c r="I36" s="1">
-        <v>101360</v>
+        <v>195752</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -10860,7 +10944,7 @@
         <v>276</v>
       </c>
       <c r="I37" s="1">
-        <v>107984</v>
+        <v>209729</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -10889,7 +10973,7 @@
         <v>340</v>
       </c>
       <c r="I38" s="1">
-        <v>114608</v>
+        <v>223838</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -10918,7 +11002,7 @@
         <v>404</v>
       </c>
       <c r="I39" s="1">
-        <v>121232</v>
+        <v>238079</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -10947,7 +11031,7 @@
         <v>468</v>
       </c>
       <c r="I40" s="1">
-        <v>127856</v>
+        <v>252453</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -10976,7 +11060,7 @@
         <v>532</v>
       </c>
       <c r="I41" s="1">
-        <v>134480</v>
+        <v>266960</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -11000,8 +11084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H42"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11064,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -11093,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1200</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -11122,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1400</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -11151,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1600</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -11180,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1800</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -11209,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -11354,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4304</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -11383,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4880</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -11412,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5456</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -11441,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8912</v>
+        <v>11677</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -11470,7 +11554,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>12368</v>
+        <v>17034</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -11499,7 +11583,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>15824</v>
+        <v>22736</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -11528,7 +11612,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>19280</v>
+        <v>28784</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -11557,7 +11641,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>22736</v>
+        <v>35178</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -11586,7 +11670,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>26192</v>
+        <v>41917</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -11615,7 +11699,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>29648</v>
+        <v>49002</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -11644,7 +11728,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>33104</v>
+        <v>56432</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -11673,7 +11757,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>36560</v>
+        <v>64208</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -11702,7 +11786,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>40016</v>
+        <v>71189</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -11731,7 +11815,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>43472</v>
+        <v>78308</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -11760,7 +11844,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="1">
-        <v>46928</v>
+        <v>85117</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -11789,7 +11873,7 @@
         <v>68</v>
       </c>
       <c r="I27" s="1">
-        <v>50384</v>
+        <v>91994</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -11818,7 +11902,7 @@
         <v>76</v>
       </c>
       <c r="I28" s="1">
-        <v>53840</v>
+        <v>98941</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -11847,7 +11931,7 @@
         <v>84</v>
       </c>
       <c r="I29" s="1">
-        <v>57296</v>
+        <v>105956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -11876,7 +11960,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="1">
-        <v>64208</v>
+        <v>119573</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -11905,7 +11989,7 @@
         <v>116</v>
       </c>
       <c r="I31" s="1">
-        <v>71120</v>
+        <v>133328</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -11934,7 +12018,7 @@
         <v>132</v>
       </c>
       <c r="I32" s="1">
-        <v>78032</v>
+        <v>147221</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -11963,7 +12047,7 @@
         <v>148</v>
       </c>
       <c r="I33" s="1">
-        <v>84944</v>
+        <v>161252</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -11992,7 +12076,7 @@
         <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>91856</v>
+        <v>175422</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -12021,7 +12105,7 @@
         <v>212</v>
       </c>
       <c r="I35" s="1">
-        <v>98768</v>
+        <v>189730</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -12050,7 +12134,7 @@
         <v>244</v>
       </c>
       <c r="I36" s="1">
-        <v>105680</v>
+        <v>204176</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -12079,7 +12163,7 @@
         <v>276</v>
       </c>
       <c r="I37" s="1">
-        <v>112592</v>
+        <v>218760</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -12108,7 +12192,7 @@
         <v>340</v>
       </c>
       <c r="I38" s="1">
-        <v>119504</v>
+        <v>233483</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -12137,7 +12221,7 @@
         <v>404</v>
       </c>
       <c r="I39" s="1">
-        <v>126416</v>
+        <v>248344</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -12166,7 +12250,7 @@
         <v>468</v>
       </c>
       <c r="I40" s="1">
-        <v>133328</v>
+        <v>263343</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -12195,7 +12279,7 @@
         <v>532</v>
       </c>
       <c r="I41" s="1">
-        <v>140240</v>
+        <v>278480</v>
       </c>
     </row>
   </sheetData>
@@ -12215,7 +12299,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H50"/>
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12278,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -12307,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1200</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -12336,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1400</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -12365,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1600</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -12394,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1800</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -12423,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -12568,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4016</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -12597,7 +12681,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4520</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -12626,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5024</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -12655,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8048</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -12684,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>11072</v>
+        <v>15154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -12713,7 +12797,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>14096</v>
+        <v>20144</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -12742,7 +12826,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>17120</v>
+        <v>25436</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -12771,7 +12855,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>20144</v>
+        <v>31030</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -12800,7 +12884,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>23168</v>
+        <v>36927</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -12829,7 +12913,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>26192</v>
+        <v>43126</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -12858,7 +12942,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>29216</v>
+        <v>49628</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -12887,7 +12971,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>32240</v>
+        <v>56432</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -12916,7 +13000,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>35264</v>
+        <v>62540</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -12945,7 +13029,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>38288</v>
+        <v>68770</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -12974,7 +13058,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="1">
-        <v>41312</v>
+        <v>74727</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -13003,7 +13087,7 @@
         <v>68</v>
       </c>
       <c r="I27" s="1">
-        <v>44336</v>
+        <v>80745</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -13032,7 +13116,7 @@
         <v>76</v>
       </c>
       <c r="I28" s="1">
-        <v>47360</v>
+        <v>86823</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -13061,7 +13145,7 @@
         <v>84</v>
       </c>
       <c r="I29" s="1">
-        <v>50384</v>
+        <v>92962</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -13090,7 +13174,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="1">
-        <v>56432</v>
+        <v>104876</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -13119,7 +13203,7 @@
         <v>116</v>
       </c>
       <c r="I31" s="1">
-        <v>62480</v>
+        <v>116912</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -13148,7 +13232,7 @@
         <v>132</v>
       </c>
       <c r="I32" s="1">
-        <v>68528</v>
+        <v>129068</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -13177,7 +13261,7 @@
         <v>148</v>
       </c>
       <c r="I33" s="1">
-        <v>74576</v>
+        <v>141346</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -13206,7 +13290,7 @@
         <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>80624</v>
+        <v>153744</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -13235,7 +13319,7 @@
         <v>212</v>
       </c>
       <c r="I35" s="1">
-        <v>86672</v>
+        <v>166264</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -13264,7 +13348,7 @@
         <v>244</v>
       </c>
       <c r="I36" s="1">
-        <v>92720</v>
+        <v>178904</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -13293,7 +13377,7 @@
         <v>276</v>
       </c>
       <c r="I37" s="1">
-        <v>98768</v>
+        <v>191665</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -13322,7 +13406,7 @@
         <v>340</v>
       </c>
       <c r="I38" s="1">
-        <v>104816</v>
+        <v>204548</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -13351,7 +13435,7 @@
         <v>404</v>
       </c>
       <c r="I39" s="1">
-        <v>110864</v>
+        <v>217551</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -13380,7 +13464,7 @@
         <v>468</v>
       </c>
       <c r="I40" s="1">
-        <v>116912</v>
+        <v>230675</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -13409,7 +13493,7 @@
         <v>532</v>
       </c>
       <c r="I41" s="1">
-        <v>122960</v>
+        <v>243920</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -13476,8 +13560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13540,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>3000</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -13569,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>3400</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -13598,7 +13682,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>3800</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -13627,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>4200</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -13656,7 +13740,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4600</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -13685,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>5000</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -13830,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>8456</v>
+        <v>9320</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -13859,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>9320</v>
+        <v>10616</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -13888,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>10184</v>
+        <v>11998</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -13917,7 +14001,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>15368</v>
+        <v>19515</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -13946,7 +14030,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>20552</v>
+        <v>27550</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -13975,7 +14059,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>25736</v>
+        <v>36104</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -14004,7 +14088,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>30920</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -14033,7 +14117,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>36104</v>
+        <v>54766</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -14062,7 +14146,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>41288</v>
+        <v>64875</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -14091,7 +14175,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>46472</v>
+        <v>75502</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -14120,7 +14204,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>51656</v>
+        <v>86648</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -14149,7 +14233,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>56840</v>
+        <v>98312</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -14178,7 +14262,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>62024</v>
+        <v>108784</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -14207,7 +14291,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>67208</v>
+        <v>119463</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -14236,7 +14320,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>72392</v>
+        <v>129675</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -14265,7 +14349,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>77576</v>
+        <v>139991</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -14294,7 +14378,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>82760</v>
+        <v>150411</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -14323,7 +14407,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>87944</v>
+        <v>160935</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -14352,7 +14436,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>98312</v>
+        <v>181360</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -14381,7 +14465,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>108680</v>
+        <v>201992</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -14410,7 +14494,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>119048</v>
+        <v>222832</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -14439,7 +14523,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>129416</v>
+        <v>243879</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -14468,7 +14552,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>139784</v>
+        <v>265133</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -14497,7 +14581,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>150152</v>
+        <v>286595</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -14526,7 +14610,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>160520</v>
+        <v>308264</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -14555,7 +14639,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>170888</v>
+        <v>330140</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -14584,7 +14668,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>181256</v>
+        <v>352224</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -14613,7 +14697,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>191624</v>
+        <v>374516</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -14642,7 +14726,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>201992</v>
+        <v>397014</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -14671,7 +14755,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="1">
-        <v>212360</v>
+        <v>419720</v>
       </c>
     </row>
   </sheetData>
@@ -14691,7 +14775,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D42"/>
+      <selection activeCell="I2" sqref="I2:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14754,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>3000</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -14783,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>3400</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -14812,7 +14896,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>3800</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -14841,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>4200</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -14870,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4600</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -14899,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>5000</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -15044,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>8552</v>
+        <v>9440</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -15073,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>9440</v>
+        <v>10772</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -15102,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>10328</v>
+        <v>12193</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -15131,7 +15215,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>15656</v>
+        <v>19918</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -15160,7 +15244,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>20984</v>
+        <v>28177</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -15189,7 +15273,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>26312</v>
+        <v>36968</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -15218,7 +15302,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>31640</v>
+        <v>46292</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -15247,7 +15331,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>36968</v>
+        <v>56149</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -15276,7 +15360,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>42296</v>
+        <v>66538</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -15305,7 +15389,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>47624</v>
+        <v>77461</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -15334,7 +15418,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>52952</v>
+        <v>88916</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -15363,7 +15447,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>58280</v>
+        <v>100904</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -15392,7 +15476,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>63608</v>
+        <v>111667</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -15421,7 +15505,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>68936</v>
+        <v>122642</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -15450,7 +15534,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>74264</v>
+        <v>133138</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -15479,7 +15563,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>79592</v>
+        <v>143741</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -15508,7 +15592,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>84920</v>
+        <v>154450</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -15537,7 +15621,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>90248</v>
+        <v>165266</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -15566,7 +15650,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>100904</v>
+        <v>186259</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -15595,7 +15679,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>111560</v>
+        <v>207464</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -15624,7 +15708,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>122216</v>
+        <v>228883</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -15653,7 +15737,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>132872</v>
+        <v>250514</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -15682,7 +15766,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>143528</v>
+        <v>272359</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -15711,7 +15795,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>154184</v>
+        <v>294417</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -15740,7 +15824,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>164840</v>
+        <v>316688</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -15769,7 +15853,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>175496</v>
+        <v>339172</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -15798,7 +15882,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>186152</v>
+        <v>361869</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -15827,7 +15911,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>196808</v>
+        <v>384780</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -15856,7 +15940,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>207464</v>
+        <v>407903</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -15885,7 +15969,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="1">
-        <v>218120</v>
+        <v>431240</v>
       </c>
     </row>
   </sheetData>
@@ -15905,7 +15989,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I2" sqref="I2:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -16258,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>5860</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -16287,7 +16371,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>7300</v>
+        <v>9460</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -16316,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>8740</v>
+        <v>11764</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -16345,7 +16429,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>17380</v>
+        <v>24292</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -16374,7 +16458,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>26020</v>
+        <v>37684</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -16403,7 +16487,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>34660</v>
+        <v>51940</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -16432,7 +16516,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>43300</v>
+        <v>67060</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -16461,7 +16545,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="1">
-        <v>51940</v>
+        <v>83044</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -16490,7 +16574,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1">
-        <v>60580</v>
+        <v>99892</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -16519,7 +16603,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="1">
-        <v>69220</v>
+        <v>117604</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -16548,7 +16632,7 @@
         <v>48</v>
       </c>
       <c r="I22" s="1">
-        <v>77860</v>
+        <v>136180</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -16577,7 +16661,7 @@
         <v>64</v>
       </c>
       <c r="I23" s="1">
-        <v>86500</v>
+        <v>155620</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -16606,7 +16690,7 @@
         <v>80</v>
       </c>
       <c r="I24" s="1">
-        <v>95140</v>
+        <v>173073</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -16635,7 +16719,7 @@
         <v>100</v>
       </c>
       <c r="I25" s="1">
-        <v>103780</v>
+        <v>190871</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -16664,7 +16748,7 @@
         <v>140</v>
       </c>
       <c r="I26" s="1">
-        <v>112420</v>
+        <v>207892</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -16693,7 +16777,7 @@
         <v>160</v>
       </c>
       <c r="I27" s="1">
-        <v>121060</v>
+        <v>225086</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -16722,7 +16806,7 @@
         <v>180</v>
       </c>
       <c r="I28" s="1">
-        <v>129700</v>
+        <v>242452</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -16751,7 +16835,7 @@
         <v>210</v>
       </c>
       <c r="I29" s="1">
-        <v>138340</v>
+        <v>259991</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -16780,7 +16864,7 @@
         <v>320</v>
       </c>
       <c r="I30" s="1">
-        <v>155620</v>
+        <v>294033</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -16809,7 +16893,7 @@
         <v>390</v>
       </c>
       <c r="I31" s="1">
-        <v>172900</v>
+        <v>328420</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -16838,7 +16922,7 @@
         <v>450</v>
       </c>
       <c r="I32" s="1">
-        <v>190180</v>
+        <v>363153</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -16867,7 +16951,7 @@
         <v>500</v>
       </c>
       <c r="I33" s="1">
-        <v>207460</v>
+        <v>398231</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -16896,7 +16980,7 @@
         <v>680</v>
       </c>
       <c r="I34" s="1">
-        <v>224740</v>
+        <v>433655</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -16925,7 +17009,7 @@
         <v>780</v>
       </c>
       <c r="I35" s="1">
-        <v>242020</v>
+        <v>469425</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -16954,7 +17038,7 @@
         <v>900</v>
       </c>
       <c r="I36" s="1">
-        <v>259300</v>
+        <v>505540</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -16983,7 +17067,7 @@
         <v>1020</v>
       </c>
       <c r="I37" s="1">
-        <v>276580</v>
+        <v>542001</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -17012,7 +17096,7 @@
         <v>1280</v>
       </c>
       <c r="I38" s="1">
-        <v>293860</v>
+        <v>578807</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -17041,7 +17125,7 @@
         <v>1540</v>
       </c>
       <c r="I39" s="1">
-        <v>311140</v>
+        <v>615959</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -17070,7 +17154,7 @@
         <v>1800</v>
       </c>
       <c r="I40" s="1">
-        <v>328420</v>
+        <v>653457</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -17099,7 +17183,7 @@
         <v>2060</v>
       </c>
       <c r="I41" s="1">
-        <v>345700</v>
+        <v>691300</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -17124,7 +17208,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D42"/>
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17187,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>3000</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -17216,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>3400</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -17245,7 +17329,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>3800</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -17274,7 +17358,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>4200</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -17303,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4600</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -17332,7 +17416,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>5000</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -17477,7 +17561,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>8648</v>
+        <v>9560</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -17506,7 +17590,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>9560</v>
+        <v>10928</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -17535,7 +17619,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>10472</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -17564,7 +17648,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>15944</v>
+        <v>20322</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -17593,7 +17677,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>21416</v>
+        <v>28803</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -17622,7 +17706,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>26888</v>
+        <v>37832</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -17651,7 +17735,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>32360</v>
+        <v>47408</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -17680,7 +17764,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>37832</v>
+        <v>57531</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -17709,7 +17793,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>43304</v>
+        <v>68202</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -17738,7 +17822,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>48776</v>
+        <v>79419</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -17767,7 +17851,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>54248</v>
+        <v>91184</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -17796,7 +17880,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>59720</v>
+        <v>103496</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -17825,7 +17909,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>65192</v>
+        <v>114549</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -17854,7 +17938,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>70664</v>
+        <v>125822</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -17883,7 +17967,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>76136</v>
+        <v>136602</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -17912,7 +17996,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>81608</v>
+        <v>147491</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -17941,7 +18025,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>87080</v>
+        <v>158490</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -17970,7 +18054,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>92552</v>
+        <v>169598</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -17999,7 +18083,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>103496</v>
+        <v>191157</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -18028,7 +18112,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>114440</v>
+        <v>212936</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -18057,7 +18141,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>125384</v>
+        <v>234933</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -18086,7 +18170,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>136328</v>
+        <v>257150</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -18115,7 +18199,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>147272</v>
+        <v>279585</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -18144,7 +18228,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>158216</v>
+        <v>302239</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -18173,7 +18257,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>169160</v>
+        <v>325112</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -18202,7 +18286,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>180104</v>
+        <v>348204</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -18231,7 +18315,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>191048</v>
+        <v>371515</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -18260,7 +18344,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>201992</v>
+        <v>395044</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -18289,7 +18373,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>212936</v>
+        <v>418793</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -18318,7 +18402,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="1">
-        <v>223880</v>
+        <v>442760</v>
       </c>
     </row>
   </sheetData>
@@ -18338,7 +18422,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -18401,7 +18485,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>3000</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -18430,7 +18514,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>3400</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -18459,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>3800</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -18488,7 +18572,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>4200</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -18517,7 +18601,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4600</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -18546,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>5000</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -18691,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>8744</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -18720,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>9680</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -18749,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>10616</v>
+        <v>12582</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -18778,7 +18862,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>16232</v>
+        <v>20725</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -18807,7 +18891,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>21848</v>
+        <v>29430</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -18836,7 +18920,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>27464</v>
+        <v>38696</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -18865,7 +18949,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>33080</v>
+        <v>48524</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -18894,7 +18978,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>38696</v>
+        <v>58914</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -18923,7 +19007,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>44312</v>
+        <v>69865</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -18952,7 +19036,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>49928</v>
+        <v>81378</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -18981,7 +19065,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>55544</v>
+        <v>93452</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -19010,7 +19094,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>61160</v>
+        <v>106088</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -19039,7 +19123,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>66776</v>
+        <v>117432</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -19068,7 +19152,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>72392</v>
+        <v>129001</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -19097,7 +19181,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>78008</v>
+        <v>140065</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -19126,7 +19210,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>83624</v>
+        <v>151241</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -19155,7 +19239,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>89240</v>
+        <v>162529</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -19184,7 +19268,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>94856</v>
+        <v>173929</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -19213,7 +19297,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>106088</v>
+        <v>196056</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -19242,7 +19326,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>117320</v>
+        <v>218408</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -19271,7 +19355,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>128552</v>
+        <v>240984</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -19300,7 +19384,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>139784</v>
+        <v>263785</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -19329,7 +19413,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>151016</v>
+        <v>286811</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -19358,7 +19442,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>162248</v>
+        <v>310061</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -19387,7 +19471,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>173480</v>
+        <v>333536</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -19416,7 +19500,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>184712</v>
+        <v>357236</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -19445,7 +19529,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>195944</v>
+        <v>381160</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -19474,7 +19558,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>207176</v>
+        <v>405308</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -19503,7 +19587,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>218408</v>
+        <v>429682</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -19532,7 +19616,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="1">
-        <v>229640</v>
+        <v>454280</v>
       </c>
     </row>
   </sheetData>
@@ -19551,8 +19635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -19905,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3940</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -19934,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4900</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -19963,7 +20047,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5860</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -19992,7 +20076,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>11620</v>
+        <v>16228</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -20021,7 +20105,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>17380</v>
+        <v>25156</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -20050,7 +20134,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>23140</v>
+        <v>34660</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -20079,7 +20163,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>28900</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -20108,7 +20192,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="1">
-        <v>34660</v>
+        <v>55396</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -20137,7 +20221,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1">
-        <v>40420</v>
+        <v>66628</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -20166,7 +20250,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="1">
-        <v>46180</v>
+        <v>78436</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -20195,7 +20279,7 @@
         <v>48</v>
       </c>
       <c r="I22" s="1">
-        <v>51940</v>
+        <v>90820</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -20224,7 +20308,7 @@
         <v>64</v>
       </c>
       <c r="I23" s="1">
-        <v>57700</v>
+        <v>103780</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -20253,7 +20337,7 @@
         <v>80</v>
       </c>
       <c r="I24" s="1">
-        <v>63460</v>
+        <v>115415</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -20282,7 +20366,7 @@
         <v>96</v>
       </c>
       <c r="I25" s="1">
-        <v>69220</v>
+        <v>127281</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -20311,7 +20395,7 @@
         <v>140</v>
       </c>
       <c r="I26" s="1">
-        <v>74980</v>
+        <v>138628</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -20340,7 +20424,7 @@
         <v>160</v>
       </c>
       <c r="I27" s="1">
-        <v>80740</v>
+        <v>150090</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -20369,7 +20453,7 @@
         <v>180</v>
       </c>
       <c r="I28" s="1">
-        <v>86500</v>
+        <v>161668</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -20398,7 +20482,7 @@
         <v>210</v>
       </c>
       <c r="I29" s="1">
-        <v>92260</v>
+        <v>173361</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -20427,7 +20511,7 @@
         <v>320</v>
       </c>
       <c r="I30" s="1">
-        <v>103780</v>
+        <v>196055</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -20456,7 +20540,7 @@
         <v>390</v>
       </c>
       <c r="I31" s="1">
-        <v>115300</v>
+        <v>218980</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -20485,7 +20569,7 @@
         <v>450</v>
       </c>
       <c r="I32" s="1">
-        <v>126820</v>
+        <v>242135</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -20514,7 +20598,7 @@
         <v>500</v>
       </c>
       <c r="I33" s="1">
-        <v>138340</v>
+        <v>265521</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -20543,7 +20627,7 @@
         <v>680</v>
       </c>
       <c r="I34" s="1">
-        <v>149860</v>
+        <v>289137</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -20572,7 +20656,7 @@
         <v>780</v>
       </c>
       <c r="I35" s="1">
-        <v>161380</v>
+        <v>312983</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -20601,7 +20685,7 @@
         <v>900</v>
       </c>
       <c r="I36" s="1">
-        <v>172900</v>
+        <v>337060</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -20630,7 +20714,7 @@
         <v>1020</v>
       </c>
       <c r="I37" s="1">
-        <v>184420</v>
+        <v>361367</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -20659,7 +20743,7 @@
         <v>1160</v>
       </c>
       <c r="I38" s="1">
-        <v>195940</v>
+        <v>385905</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -20688,7 +20772,7 @@
         <v>1280</v>
       </c>
       <c r="I39" s="1">
-        <v>207460</v>
+        <v>410673</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -20717,7 +20801,7 @@
         <v>1480</v>
       </c>
       <c r="I40" s="1">
-        <v>218980</v>
+        <v>435671</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -20746,7 +20830,7 @@
         <v>1650</v>
       </c>
       <c r="I41" s="1">
-        <v>230500</v>
+        <v>460900</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -20769,7 +20853,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -21122,7 +21206,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2550</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -21151,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>3150</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -21180,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>3750</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -21209,7 +21293,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>7350</v>
+        <v>10230</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -21238,7 +21322,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>10950</v>
+        <v>15810</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -21267,7 +21351,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>14550</v>
+        <v>21750</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -21296,7 +21380,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="1">
-        <v>18150</v>
+        <v>28050</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -21325,7 +21409,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>21750</v>
+        <v>34710</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -21354,7 +21438,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="1">
-        <v>25350</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -21383,7 +21467,7 @@
         <v>21</v>
       </c>
       <c r="I21" s="1">
-        <v>28950</v>
+        <v>49110</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -21412,7 +21496,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>32550</v>
+        <v>56850</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -21441,7 +21525,7 @@
         <v>35</v>
       </c>
       <c r="I23" s="1">
-        <v>36150</v>
+        <v>64950</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -21470,7 +21554,7 @@
         <v>42</v>
       </c>
       <c r="I24" s="1">
-        <v>39750</v>
+        <v>72222</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -21499,7 +21583,7 @@
         <v>49</v>
       </c>
       <c r="I25" s="1">
-        <v>43350</v>
+        <v>79638</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -21528,7 +21612,7 @@
         <v>63</v>
       </c>
       <c r="I26" s="1">
-        <v>46950</v>
+        <v>86730</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -21557,7 +21641,7 @@
         <v>77</v>
       </c>
       <c r="I27" s="1">
-        <v>50550</v>
+        <v>93894</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -21586,7 +21670,7 @@
         <v>91</v>
       </c>
       <c r="I28" s="1">
-        <v>54150</v>
+        <v>101130</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -21615,7 +21699,7 @@
         <v>105</v>
       </c>
       <c r="I29" s="1">
-        <v>57750</v>
+        <v>108438</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -21644,7 +21728,7 @@
         <v>133</v>
       </c>
       <c r="I30" s="1">
-        <v>64950</v>
+        <v>122622</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -21673,7 +21757,7 @@
         <v>161</v>
       </c>
       <c r="I31" s="1">
-        <v>72150</v>
+        <v>136950</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -21702,7 +21786,7 @@
         <v>189</v>
       </c>
       <c r="I32" s="1">
-        <v>79350</v>
+        <v>151422</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -21731,7 +21815,7 @@
         <v>217</v>
       </c>
       <c r="I33" s="1">
-        <v>86550</v>
+        <v>166038</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -21760,7 +21844,7 @@
         <v>273</v>
       </c>
       <c r="I34" s="1">
-        <v>93750</v>
+        <v>180798</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -21789,7 +21873,7 @@
         <v>329</v>
       </c>
       <c r="I35" s="1">
-        <v>100950</v>
+        <v>195702</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -21818,7 +21902,7 @@
         <v>385</v>
       </c>
       <c r="I36" s="1">
-        <v>108150</v>
+        <v>210750</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -21847,7 +21931,7 @@
         <v>441</v>
       </c>
       <c r="I37" s="1">
-        <v>115350</v>
+        <v>225942</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -21876,7 +21960,7 @@
         <v>497</v>
       </c>
       <c r="I38" s="1">
-        <v>122550</v>
+        <v>241278</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -21905,7 +21989,7 @@
         <v>553</v>
       </c>
       <c r="I39" s="1">
-        <v>129750</v>
+        <v>256758</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -21934,7 +22018,7 @@
         <v>609</v>
       </c>
       <c r="I40" s="1">
-        <v>136950</v>
+        <v>272382</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -21963,7 +22047,7 @@
         <v>665</v>
       </c>
       <c r="I41" s="1">
-        <v>144150</v>
+        <v>288150</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -21987,8 +22071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -22341,7 +22425,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2080</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -22370,7 +22454,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>2560</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -22399,7 +22483,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>3040</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -22428,7 +22512,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>5920</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -22457,7 +22541,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>8800</v>
+        <v>12688</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -22486,7 +22570,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>11680</v>
+        <v>17440</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -22515,7 +22599,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>14560</v>
+        <v>22480</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -22544,7 +22628,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>17440</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -22573,7 +22657,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>20320</v>
+        <v>33424</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -22602,7 +22686,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="1">
-        <v>23200</v>
+        <v>39328</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -22631,7 +22715,7 @@
         <v>24</v>
       </c>
       <c r="I22" s="1">
-        <v>26080</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -22660,7 +22744,7 @@
         <v>32</v>
       </c>
       <c r="I23" s="1">
-        <v>28960</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -22689,7 +22773,7 @@
         <v>40</v>
       </c>
       <c r="I24" s="1">
-        <v>31840</v>
+        <v>57818</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -22718,7 +22802,7 @@
         <v>48</v>
       </c>
       <c r="I25" s="1">
-        <v>34720</v>
+        <v>63750</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -22747,7 +22831,7 @@
         <v>56</v>
       </c>
       <c r="I26" s="1">
-        <v>37600</v>
+        <v>69424</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -22776,7 +22860,7 @@
         <v>64</v>
       </c>
       <c r="I27" s="1">
-        <v>40480</v>
+        <v>75155</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -22805,7 +22889,7 @@
         <v>72</v>
       </c>
       <c r="I28" s="1">
-        <v>43360</v>
+        <v>80944</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -22834,7 +22918,7 @@
         <v>80</v>
       </c>
       <c r="I29" s="1">
-        <v>46240</v>
+        <v>86790</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -22863,7 +22947,7 @@
         <v>96</v>
       </c>
       <c r="I30" s="1">
-        <v>52000</v>
+        <v>98138</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -22892,7 +22976,7 @@
         <v>112</v>
       </c>
       <c r="I31" s="1">
-        <v>57760</v>
+        <v>109600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -22921,7 +23005,7 @@
         <v>128</v>
       </c>
       <c r="I32" s="1">
-        <v>63520</v>
+        <v>121178</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -22950,7 +23034,7 @@
         <v>144</v>
       </c>
       <c r="I33" s="1">
-        <v>69280</v>
+        <v>132870</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -22979,7 +23063,7 @@
         <v>176</v>
       </c>
       <c r="I34" s="1">
-        <v>75040</v>
+        <v>144678</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -23008,7 +23092,7 @@
         <v>208</v>
       </c>
       <c r="I35" s="1">
-        <v>80800</v>
+        <v>156602</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -23037,7 +23121,7 @@
         <v>240</v>
       </c>
       <c r="I36" s="1">
-        <v>86560</v>
+        <v>168640</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -23066,7 +23150,7 @@
         <v>272</v>
       </c>
       <c r="I37" s="1">
-        <v>92320</v>
+        <v>180794</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -23095,7 +23179,7 @@
         <v>336</v>
       </c>
       <c r="I38" s="1">
-        <v>98080</v>
+        <v>193062</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -23124,7 +23208,7 @@
         <v>400</v>
       </c>
       <c r="I39" s="1">
-        <v>103840</v>
+        <v>205446</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -23153,7 +23237,7 @@
         <v>464</v>
       </c>
       <c r="I40" s="1">
-        <v>109600</v>
+        <v>217946</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -23182,7 +23266,7 @@
         <v>528</v>
       </c>
       <c r="I41" s="1">
-        <v>115360</v>
+        <v>230560</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -23207,7 +23291,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -23560,7 +23644,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3260</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -23589,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4040</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -23618,7 +23702,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4820</v>
+        <v>6458</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -23647,7 +23731,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>9500</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -23676,7 +23760,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>14180</v>
+        <v>20498</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -23705,7 +23789,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>18860</v>
+        <v>28220</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -23734,7 +23818,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>23540</v>
+        <v>36410</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -23763,7 +23847,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>28220</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -23792,7 +23876,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>32900</v>
+        <v>54194</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -23821,7 +23905,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>37580</v>
+        <v>63788</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -23850,7 +23934,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>42260</v>
+        <v>73850</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -23879,7 +23963,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>46940</v>
+        <v>84380</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -23908,7 +23992,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>51620</v>
+        <v>93834</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -23937,7 +24021,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>56300</v>
+        <v>103474</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -23966,7 +24050,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>60980</v>
+        <v>112694</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -23995,7 +24079,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>65660</v>
+        <v>122007</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -24024,7 +24108,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>70340</v>
+        <v>131414</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -24053,7 +24137,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>75020</v>
+        <v>140914</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -24082,7 +24166,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>84380</v>
+        <v>159354</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -24111,7 +24195,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>93740</v>
+        <v>177980</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -24140,7 +24224,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>103100</v>
+        <v>196794</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -24169,7 +24253,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>112460</v>
+        <v>215794</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -24198,7 +24282,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>121820</v>
+        <v>234982</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -24227,7 +24311,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>131180</v>
+        <v>254358</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -24256,7 +24340,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>140540</v>
+        <v>273920</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -24285,7 +24369,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>149900</v>
+        <v>293670</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -24314,7 +24398,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>159260</v>
+        <v>313606</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -24343,7 +24427,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>168620</v>
+        <v>333730</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -24372,7 +24456,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>177980</v>
+        <v>354042</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -24401,7 +24485,7 @@
         <v>996</v>
       </c>
       <c r="I41" s="1">
-        <v>187340</v>
+        <v>374540</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -24425,8 +24509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -24779,7 +24863,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3136</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -24808,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>3880</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -24837,7 +24921,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4624</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -24866,7 +24950,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>9088</v>
+        <v>12659</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -24895,7 +24979,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>13552</v>
+        <v>19578</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -24924,7 +25008,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>18016</v>
+        <v>26944</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -24953,7 +25037,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>22480</v>
+        <v>34756</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -24982,7 +25066,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>26944</v>
+        <v>43014</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -25011,7 +25095,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>31408</v>
+        <v>51719</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -25040,7 +25124,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>35872</v>
+        <v>60870</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -25069,7 +25153,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>40336</v>
+        <v>70468</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -25098,7 +25182,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>44800</v>
+        <v>80512</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -25127,7 +25211,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>49264</v>
+        <v>89529</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -25156,7 +25240,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>53728</v>
+        <v>98725</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -25185,7 +25269,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>58192</v>
+        <v>107519</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -25214,7 +25298,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>62656</v>
+        <v>116403</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -25243,7 +25327,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>67120</v>
+        <v>125375</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -25272,7 +25356,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>71584</v>
+        <v>134437</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -25301,7 +25385,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>80512</v>
+        <v>152025</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -25330,7 +25414,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>89440</v>
+        <v>169792</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -25359,7 +25443,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>98368</v>
+        <v>187737</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -25388,7 +25472,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>107296</v>
+        <v>205861</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -25417,7 +25501,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>116224</v>
+        <v>224164</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -25446,7 +25530,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>125152</v>
+        <v>242644</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -25475,7 +25559,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>134080</v>
+        <v>261304</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -25504,7 +25588,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>143008</v>
+        <v>280142</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -25533,7 +25617,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>151936</v>
+        <v>299159</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -25562,7 +25646,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>160864</v>
+        <v>318354</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -25591,7 +25675,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>169792</v>
+        <v>337728</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -25620,7 +25704,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="1">
-        <v>178720</v>
+        <v>357280</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -25671,8 +25755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I44"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -26025,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>3616</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -26054,7 +26138,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>4480</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -26083,7 +26167,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>5344</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -26112,7 +26196,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>10528</v>
+        <v>14675</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -26141,7 +26225,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="4">
-        <v>15712</v>
+        <v>22710</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -26170,7 +26254,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="4">
-        <v>20896</v>
+        <v>31264</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -26199,7 +26283,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="4">
-        <v>26080</v>
+        <v>40336</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -26228,7 +26312,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="4">
-        <v>31264</v>
+        <v>49926</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -26257,7 +26341,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="4">
-        <v>36448</v>
+        <v>60035</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -26286,7 +26370,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="4">
-        <v>41632</v>
+        <v>70662</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -26315,7 +26399,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="4">
-        <v>46816</v>
+        <v>81808</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -26344,7 +26428,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="4">
-        <v>52000</v>
+        <v>93472</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -26373,7 +26457,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="4">
-        <v>57184</v>
+        <v>103944</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -26402,7 +26486,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="4">
-        <v>62368</v>
+        <v>114623</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -26431,7 +26515,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="4">
-        <v>67552</v>
+        <v>124835</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -26460,7 +26544,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="4">
-        <v>72736</v>
+        <v>135151</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -26489,7 +26573,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="4">
-        <v>77920</v>
+        <v>145571</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -26518,7 +26602,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="4">
-        <v>83104</v>
+        <v>156095</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -26547,7 +26631,7 @@
         <v>164</v>
       </c>
       <c r="I30" s="4">
-        <v>93472</v>
+        <v>176520</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -26576,7 +26660,7 @@
         <v>212</v>
       </c>
       <c r="I31" s="4">
-        <v>103840</v>
+        <v>197152</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -26605,7 +26689,7 @@
         <v>260</v>
       </c>
       <c r="I32" s="4">
-        <v>114208</v>
+        <v>217992</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -26634,7 +26718,7 @@
         <v>308</v>
       </c>
       <c r="I33" s="4">
-        <v>124576</v>
+        <v>239039</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -26663,7 +26747,7 @@
         <v>404</v>
       </c>
       <c r="I34" s="4">
-        <v>134944</v>
+        <v>260293</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -26692,7 +26776,7 @@
         <v>500</v>
       </c>
       <c r="I35" s="4">
-        <v>145312</v>
+        <v>281755</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -26721,7 +26805,7 @@
         <v>596</v>
       </c>
       <c r="I36" s="4">
-        <v>155680</v>
+        <v>303424</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -26750,7 +26834,7 @@
         <v>692</v>
       </c>
       <c r="I37" s="4">
-        <v>166048</v>
+        <v>325300</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -26779,7 +26863,7 @@
         <v>788</v>
       </c>
       <c r="I38" s="4">
-        <v>176416</v>
+        <v>347384</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -26808,7 +26892,7 @@
         <v>884</v>
       </c>
       <c r="I39" s="4">
-        <v>186784</v>
+        <v>369676</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -26836,8 +26920,8 @@
       <c r="H40" s="4">
         <v>980</v>
       </c>
-      <c r="I40" s="4">
-        <v>197152</v>
+      <c r="I40" s="1">
+        <v>392174</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -26866,7 +26950,7 @@
         <v>1076</v>
       </c>
       <c r="I41" s="1">
-        <v>207520</v>
+        <v>414880</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -26891,8 +26975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I44"/>
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -27245,7 +27329,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2800</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -27274,7 +27358,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>3460</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -27303,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4120</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -27332,7 +27416,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8080</v>
+        <v>11248</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -27361,7 +27445,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>12040</v>
+        <v>17386</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -27390,7 +27474,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>16000</v>
+        <v>23920</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -27419,7 +27503,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>19960</v>
+        <v>30850</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -27448,7 +27532,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>23920</v>
+        <v>38176</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -27477,7 +27561,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>27880</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -27506,7 +27590,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>31840</v>
+        <v>54016</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -27535,7 +27619,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>35800</v>
+        <v>62530</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -27564,7 +27648,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>39760</v>
+        <v>71440</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -27593,7 +27677,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>43720</v>
+        <v>79439</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -27622,7 +27706,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>47680</v>
+        <v>87597</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -27651,7 +27735,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>51640</v>
+        <v>95398</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -27680,7 +27764,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>55600</v>
+        <v>103278</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -27709,7 +27793,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>59560</v>
+        <v>111238</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -27738,7 +27822,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>63520</v>
+        <v>119277</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -27767,7 +27851,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>71440</v>
+        <v>134879</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -27796,7 +27880,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>79360</v>
+        <v>150640</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -27825,7 +27909,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>87280</v>
+        <v>166559</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -27854,7 +27938,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>95200</v>
+        <v>182637</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -27883,7 +27967,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>103120</v>
+        <v>198873</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -27912,7 +27996,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>111040</v>
+        <v>215267</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -27941,7 +28025,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>118960</v>
+        <v>231820</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -27970,7 +28054,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>126880</v>
+        <v>248531</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -27999,7 +28083,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>134800</v>
+        <v>265401</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -28028,7 +28112,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>142720</v>
+        <v>282429</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -28057,7 +28141,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>150640</v>
+        <v>299615</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -28086,7 +28170,7 @@
         <v>996</v>
       </c>
       <c r="I41" s="1">
-        <v>158560</v>
+        <v>316960</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
